--- a/WS_holdings.xlsx
+++ b/WS_holdings.xlsx
@@ -879,6 +879,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection password="D382" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/WS_holdings.xlsx
+++ b/WS_holdings.xlsx
@@ -879,7 +879,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="D382" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D382" sheet="1" objects="1" scenarios="1" formatColumns="0" formatRows="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/WS_holdings.xlsx
+++ b/WS_holdings.xlsx
@@ -134,7 +134,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-16 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-17 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -591,10 +591,10 @@
         <v>28</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03041277225634281</v>
+        <v>0.03039971296323868</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.004304160688665459</v>
+        <v>0.001080691642651121</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -608,10 +608,10 @@
         <v>29</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02371081367390755</v>
+        <v>0.02382043370014354</v>
       </c>
       <c r="E3" s="1">
-        <v>0.0007288629737609575</v>
+        <v>-0.01650886137412</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -625,10 +625,10 @@
         <v>30</v>
       </c>
       <c r="D4" s="1">
-        <v>0.05099494301190284</v>
+        <v>0.05114318837697987</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.0009806325079676492</v>
+        <v>-0.0007361963190185561</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -642,10 +642,10 @@
         <v>31</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1368133510663137</v>
+        <v>0.1369271661444274</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.003047748052827703</v>
+        <v>-0.001698369565217406</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -659,10 +659,10 @@
         <v>32</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03291313719931426</v>
+        <v>0.03209784153966283</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.02855153203342609</v>
+        <v>0.008602150537634357</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -676,10 +676,10 @@
         <v>33</v>
       </c>
       <c r="D7" s="1">
-        <v>0.120589782160607</v>
+        <v>0.1197464262520515</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.01084290693171552</v>
+        <v>0.01200574187654957</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -693,10 +693,10 @@
         <v>34</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1010882838414283</v>
+        <v>0.09994583608438941</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.0151340996168583</v>
+        <v>0.007780587434351283</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -710,10 +710,10 @@
         <v>35</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02766653809397916</v>
+        <v>0.02747926649114047</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.01061906913691812</v>
+        <v>0.01118976935373373</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -727,10 +727,10 @@
         <v>36</v>
       </c>
       <c r="D10" s="1">
-        <v>0.1226159357327767</v>
+        <v>0.1217396140507251</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.01099560175929626</v>
+        <v>0.007074994946432156</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -744,10 +744,10 @@
         <v>37</v>
       </c>
       <c r="D11" s="1">
-        <v>0.2485497576913493</v>
+        <v>0.2509664481489402</v>
       </c>
       <c r="E11" s="1">
-        <v>0.005809050876042221</v>
+        <v>-0.0005589194224497884</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -761,10 +761,10 @@
         <v>38</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1046446852720783</v>
+        <v>0.1057340662483011</v>
       </c>
       <c r="E12" s="1">
-        <v>0.006493506493506329</v>
+        <v>0.002541544477028479</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -775,7 +775,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.00387642362996854</v>
+        <v>0.003158044202775656</v>
       </c>
     </row>
     <row r="16" spans="1:5">

--- a/WS_holdings.xlsx
+++ b/WS_holdings.xlsx
@@ -134,7 +134,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-17 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-18 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -591,10 +591,10 @@
         <v>28</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03039971296323868</v>
+        <v>0.03033676084725239</v>
       </c>
       <c r="E2" s="1">
-        <v>0.001080691642651121</v>
+        <v>-0.010435408420295</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -608,10 +608,10 @@
         <v>29</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02382043370014354</v>
+        <v>0.02335343428455921</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.01650886137412</v>
+        <v>-0.005183905208590467</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -625,10 +625,10 @@
         <v>30</v>
       </c>
       <c r="D4" s="1">
-        <v>0.05114318837697987</v>
+        <v>0.05094465148865769</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.0007361963190185561</v>
+        <v>-0.006385068762278845</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -642,10 +642,10 @@
         <v>31</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1369271661444274</v>
+        <v>0.1362642845788367</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.001698369565217406</v>
+        <v>-0.009186798230690685</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -659,10 +659,10 @@
         <v>32</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03209784153966283</v>
+        <v>0.03227203548992941</v>
       </c>
       <c r="E6" s="1">
-        <v>0.008602150537634357</v>
+        <v>-0.04975124378109452</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -676,10 +676,10 @@
         <v>33</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1197464262520515</v>
+        <v>0.1208025710770028</v>
       </c>
       <c r="E7" s="1">
-        <v>0.01200574187654957</v>
+        <v>-0.02450032237266275</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -693,10 +693,10 @@
         <v>34</v>
       </c>
       <c r="D8" s="1">
-        <v>0.09994583608438941</v>
+        <v>0.1004063855967878</v>
       </c>
       <c r="E8" s="1">
-        <v>0.007780587434351283</v>
+        <v>-0.004632310364794501</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -710,10 +710,10 @@
         <v>35</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02747926649114047</v>
+        <v>0.02769927760213363</v>
       </c>
       <c r="E9" s="1">
-        <v>0.01118976935373373</v>
+        <v>-0.006323396567299078</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -727,10 +727,10 @@
         <v>36</v>
       </c>
       <c r="D10" s="1">
-        <v>0.1217396140507251</v>
+        <v>0.1222149609559751</v>
       </c>
       <c r="E10" s="1">
-        <v>0.007074994946432156</v>
+        <v>0.002207948615013944</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -744,10 +744,10 @@
         <v>37</v>
       </c>
       <c r="D11" s="1">
-        <v>0.2509664481489402</v>
+        <v>0.2500365516442843</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.0005589194224497884</v>
+        <v>-0.03141019666324929</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -761,10 +761,10 @@
         <v>38</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1057340662483011</v>
+        <v>0.1056690864345809</v>
       </c>
       <c r="E12" s="1">
-        <v>0.002541544477028479</v>
+        <v>-0.02125585023400944</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -775,7 +775,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>0.003158044202775656</v>
+        <v>-0.01705023814990791</v>
       </c>
     </row>
     <row r="16" spans="1:5">

--- a/WS_holdings.xlsx
+++ b/WS_holdings.xlsx
@@ -134,7 +134,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-18 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-19 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -591,10 +591,10 @@
         <v>28</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03033676084725239</v>
+        <v>0.03054091421840216</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.010435408420295</v>
+        <v>-0.02000000000000013</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -608,10 +608,10 @@
         <v>29</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02335343428455921</v>
+        <v>0.02363536082577141</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.005183905208590467</v>
+        <v>-0.004466501240694809</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -625,10 +625,10 @@
         <v>30</v>
       </c>
       <c r="D4" s="1">
-        <v>0.05094465148865769</v>
+        <v>0.05149740948159683</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.006385068762278845</v>
+        <v>-0.002471576866040492</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -642,10 +642,10 @@
         <v>31</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1362642845788367</v>
+        <v>0.1373543769279147</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.009186798230690685</v>
+        <v>0.003262362637362681</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -659,10 +659,10 @@
         <v>32</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03227203548992941</v>
+        <v>0.03119840176494664</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.04975124378109452</v>
+        <v>-0.004487658937920691</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -676,10 +676,10 @@
         <v>33</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1208025710770028</v>
+        <v>0.1198869705409641</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.02450032237266275</v>
+        <v>0.005948446794447948</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -693,10 +693,10 @@
         <v>34</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1004063855967878</v>
+        <v>0.1016748525051661</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.004632310364794501</v>
+        <v>-0.007756447547023426</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -710,10 +710,10 @@
         <v>35</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02769927760213363</v>
+        <v>0.02800155730586086</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.006323396567299078</v>
+        <v>-0.008863636363636296</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -727,10 +727,10 @@
         <v>36</v>
       </c>
       <c r="D10" s="1">
-        <v>0.1222149609559751</v>
+        <v>0.1246094256935501</v>
       </c>
       <c r="E10" s="1">
-        <v>0.002207948615013944</v>
+        <v>-0.01522130983376724</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -744,10 +744,10 @@
         <v>37</v>
       </c>
       <c r="D11" s="1">
-        <v>0.2500365516442843</v>
+        <v>0.2463837561019436</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.03141019666324929</v>
+        <v>-0.002405696689761316</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -761,10 +761,10 @@
         <v>38</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1056690864345809</v>
+        <v>0.1052169746338834</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.02125585023400944</v>
+        <v>0.006575014943215773</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -772,10 +772,10 @@
         <v>16</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.01705023814990791</v>
+        <v>-0.002656903556846779</v>
       </c>
     </row>
     <row r="16" spans="1:5">

--- a/WS_holdings.xlsx
+++ b/WS_holdings.xlsx
@@ -134,7 +134,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-19 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-22 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -591,10 +591,10 @@
         <v>28</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03054091421840216</v>
+        <v>0.03000982915585868</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.02000000000000013</v>
+        <v>0.005194805194805197</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -608,10 +608,10 @@
         <v>29</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02363536082577141</v>
+        <v>0.02359247639175892</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.004466501240694809</v>
+        <v>-0.002243270189431601</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -625,10 +625,10 @@
         <v>30</v>
       </c>
       <c r="D4" s="1">
-        <v>0.05149740948159683</v>
+        <v>0.05150697875070629</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.002471576866040492</v>
+        <v>0.008919722497522153</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -642,10 +642,10 @@
         <v>31</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1373543769279147</v>
+        <v>0.1381695799637362</v>
       </c>
       <c r="E5" s="1">
-        <v>0.003262362637362681</v>
+        <v>0.008899537908608757</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -659,10 +659,10 @@
         <v>32</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03119840176494664</v>
+        <v>0.03114113296535723</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.004487658937920691</v>
+        <v>-0.01202103681442523</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -676,10 +676,10 @@
         <v>33</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1198869705409641</v>
+        <v>0.1209213882731765</v>
       </c>
       <c r="E7" s="1">
-        <v>0.005948446794447948</v>
+        <v>0.002759526938239443</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -693,10 +693,10 @@
         <v>34</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1016748525051661</v>
+        <v>0.1011549758600136</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.007756447547023426</v>
+        <v>-0.002345124096150175</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -710,10 +710,10 @@
         <v>35</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02800155730586086</v>
+        <v>0.02782729612634169</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.008863636363636296</v>
+        <v>-0.001375831231369085</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -727,10 +727,10 @@
         <v>36</v>
       </c>
       <c r="D10" s="1">
-        <v>0.1246094256935501</v>
+        <v>0.1230396113980173</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.01522130983376724</v>
+        <v>-0.01382957087655079</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -744,10 +744,10 @@
         <v>37</v>
       </c>
       <c r="D11" s="1">
-        <v>0.2463837561019436</v>
+        <v>0.2464458142759981</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.002405696689761316</v>
+        <v>0.0183273849715444</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -761,10 +761,10 @@
         <v>38</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1052169746338834</v>
+        <v>0.1061909168390356</v>
       </c>
       <c r="E12" s="1">
-        <v>0.006575014943215773</v>
+        <v>0.006730007917656211</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -772,10 +772,10 @@
         <v>16</v>
       </c>
       <c r="D13" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.002656903556846779</v>
+        <v>0.005005662774874908</v>
       </c>
     </row>
     <row r="16" spans="1:5">

--- a/WS_holdings.xlsx
+++ b/WS_holdings.xlsx
@@ -134,7 +134,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-22 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-23 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -591,10 +591,10 @@
         <v>28</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03000982915585868</v>
+        <v>0.03001547701628224</v>
       </c>
       <c r="E2" s="1">
-        <v>0.005194805194805197</v>
+        <v>-0.002214839424141579</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -608,10 +608,10 @@
         <v>29</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02359247639175892</v>
+        <v>0.02342230791792799</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.002243270189431601</v>
+        <v>0.01274044466650004</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -625,10 +625,10 @@
         <v>30</v>
       </c>
       <c r="D4" s="1">
-        <v>0.05150697875070629</v>
+        <v>0.05170757601938909</v>
       </c>
       <c r="E4" s="1">
-        <v>0.008919722497522153</v>
+        <v>0.002455795677799744</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -642,10 +642,10 @@
         <v>31</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1381695799637362</v>
+        <v>0.1387049153469954</v>
       </c>
       <c r="E5" s="1">
-        <v>0.008899537908608757</v>
+        <v>-0.01475826972010197</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -659,10 +659,10 @@
         <v>32</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03114113296535723</v>
+        <v>0.03061354318600456</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.01202103681442523</v>
+        <v>-0.01901140684410652</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -676,10 +676,10 @@
         <v>33</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1209213882731765</v>
+        <v>0.1206511352052821</v>
       </c>
       <c r="E7" s="1">
-        <v>0.002759526938239443</v>
+        <v>-0.01362862010221488</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -693,10 +693,10 @@
         <v>34</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1011549758600136</v>
+        <v>0.100415110706978</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.002345124096150175</v>
+        <v>-0.01998041136141038</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -710,10 +710,10 @@
         <v>35</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02782729612634169</v>
+        <v>0.02765060087971998</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.001375831231369085</v>
+        <v>-0.02502870264064283</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -727,10 +727,10 @@
         <v>36</v>
       </c>
       <c r="D10" s="1">
-        <v>0.1230396113980173</v>
+        <v>0.1207336743123858</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.01382957087655079</v>
+        <v>-0.01629201897298416</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -744,10 +744,10 @@
         <v>37</v>
       </c>
       <c r="D11" s="1">
-        <v>0.2464458142759981</v>
+        <v>0.2497125447989407</v>
       </c>
       <c r="E11" s="1">
-        <v>0.0183273849715444</v>
+        <v>-0.007577910391209586</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -761,10 +761,10 @@
         <v>38</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1061909168390356</v>
+        <v>0.1063731146100942</v>
       </c>
       <c r="E12" s="1">
-        <v>0.006730007917656211</v>
+        <v>-0.01110892646480532</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -775,7 +775,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>0.005005662774874908</v>
+        <v>-0.01165382476013865</v>
       </c>
     </row>
     <row r="16" spans="1:5">

--- a/WS_holdings.xlsx
+++ b/WS_holdings.xlsx
@@ -134,7 +134,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-23 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-24 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -591,10 +591,10 @@
         <v>28</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03001547701628224</v>
+        <v>0.03030213330585698</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.002214839424141579</v>
+        <v>-0.004069552349241556</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -608,10 +608,10 @@
         <v>29</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02342230791792799</v>
+        <v>0.02400041516846191</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01274044466650004</v>
+        <v>0.0007400098667982302</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -625,10 +625,10 @@
         <v>30</v>
       </c>
       <c r="D4" s="1">
-        <v>0.05170757601938909</v>
+        <v>0.05244575287449998</v>
       </c>
       <c r="E4" s="1">
-        <v>0.002455795677799744</v>
+        <v>-0.00489955903968653</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -642,10 +642,10 @@
         <v>31</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1387049153469954</v>
+        <v>0.1382692362437029</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.01475826972010197</v>
+        <v>-0.007231404958677579</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -659,10 +659,10 @@
         <v>32</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03061354318600456</v>
+        <v>0.03038564565119854</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.01901140684410652</v>
+        <v>0.0248062015503876</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -676,10 +676,10 @@
         <v>33</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1206511352052821</v>
+        <v>0.1204100645098228</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.01362862010221488</v>
+        <v>-0.01820114255347394</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -693,10 +693,10 @@
         <v>34</v>
       </c>
       <c r="D8" s="1">
-        <v>0.100415110706978</v>
+        <v>0.09956913675946405</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.01998041136141038</v>
+        <v>0.004997001798920708</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -710,10 +710,10 @@
         <v>35</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02765060087971998</v>
+        <v>0.0272764167938666</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.02502870264064283</v>
+        <v>0.00612341026848795</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -727,10 +727,10 @@
         <v>36</v>
       </c>
       <c r="D10" s="1">
-        <v>0.1207336743123858</v>
+        <v>0.1201670851521096</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.01629201897298416</v>
+        <v>0.003144654088050425</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -744,10 +744,10 @@
         <v>37</v>
       </c>
       <c r="D11" s="1">
-        <v>0.2497125447989407</v>
+        <v>0.2507423529521425</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.007577910391209586</v>
+        <v>-0.01498520568865125</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -761,10 +761,10 @@
         <v>38</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1063731146100942</v>
+        <v>0.1064317605888741</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.01110892646480532</v>
+        <v>-0.02296450939457195</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -775,7 +775,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.01165382476013865</v>
+        <v>-0.007959368913706966</v>
       </c>
     </row>
     <row r="16" spans="1:5">

--- a/WS_holdings.xlsx
+++ b/WS_holdings.xlsx
@@ -134,7 +134,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-24 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-25 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -591,10 +591,10 @@
         <v>28</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03030213330585698</v>
+        <v>0.03042094874181618</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.004069552349241556</v>
+        <v>0.01040118870728057</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -608,10 +608,10 @@
         <v>29</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02400041516846191</v>
+        <v>0.02421087903042209</v>
       </c>
       <c r="E3" s="1">
-        <v>0.0007400098667982302</v>
+        <v>0.01084545230465861</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -625,10 +625,10 @@
         <v>30</v>
       </c>
       <c r="D4" s="1">
-        <v>0.05244575287449998</v>
+        <v>0.05260751442686715</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.00489955903968653</v>
+        <v>0.01033973412112266</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -642,10 +642,10 @@
         <v>31</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1382692362437029</v>
+        <v>0.1383706988420288</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.007231404958677579</v>
+        <v>0.004856052722858051</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -659,10 +659,10 @@
         <v>32</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03038564565119854</v>
+        <v>0.03138923661560406</v>
       </c>
       <c r="E6" s="1">
-        <v>0.0248062015503876</v>
+        <v>0.003782148260211615</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -676,10 +676,10 @@
         <v>33</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1204100645098228</v>
+        <v>0.119166957538177</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.01820114255347394</v>
+        <v>0.01258457374830835</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -693,10 +693,10 @@
         <v>34</v>
       </c>
       <c r="D8" s="1">
-        <v>0.09956913675946405</v>
+        <v>0.1008695418103936</v>
       </c>
       <c r="E8" s="1">
-        <v>0.004997001798920708</v>
+        <v>0.01491646778042965</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -710,10 +710,10 @@
         <v>35</v>
       </c>
       <c r="D9" s="1">
-        <v>0.0272764167938666</v>
+        <v>0.02766362649330089</v>
       </c>
       <c r="E9" s="1">
-        <v>0.00612341026848795</v>
+        <v>0.01661985018726586</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -727,10 +727,10 @@
         <v>36</v>
       </c>
       <c r="D10" s="1">
-        <v>0.1201670851521096</v>
+        <v>0.1215121289293207</v>
       </c>
       <c r="E10" s="1">
-        <v>0.003144654088050425</v>
+        <v>0.01713688610240327</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -744,10 +744,10 @@
         <v>37</v>
       </c>
       <c r="D11" s="1">
-        <v>0.2507423529521425</v>
+        <v>0.2489665437874733</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.01498520568865125</v>
+        <v>-9.689922480626834E-05</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -761,10 +761,10 @@
         <v>38</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1064317605888741</v>
+        <v>0.1048219237845962</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.02296450939457195</v>
+        <v>-0.002849002849002913</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -775,7 +775,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.007959368913706966</v>
+        <v>0.007137218682597535</v>
       </c>
     </row>
     <row r="16" spans="1:5">

--- a/WS_holdings.xlsx
+++ b/WS_holdings.xlsx
@@ -134,7 +134,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-25 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-26 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -591,10 +591,10 @@
         <v>28</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03042094874181618</v>
+        <v>0.03051953815244842</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01040118870728057</v>
+        <v>0.02022058823529416</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -608,10 +608,10 @@
         <v>29</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02421087903042209</v>
+        <v>0.02430002239040803</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01084545230465861</v>
+        <v>0.00512070226773953</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -625,10 +625,10 @@
         <v>30</v>
       </c>
       <c r="D4" s="1">
-        <v>0.05260751442686715</v>
+        <v>0.05277479687260463</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01033973412112266</v>
+        <v>0.01705653021442499</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -642,10 +642,10 @@
         <v>31</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1383706988420288</v>
+        <v>0.1380572891872484</v>
       </c>
       <c r="E5" s="1">
-        <v>0.004856052722858051</v>
+        <v>0.01674145667932336</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -659,10 +659,10 @@
         <v>32</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03138923661560406</v>
+        <v>0.03128466983225348</v>
       </c>
       <c r="E6" s="1">
-        <v>0.003782148260211615</v>
+        <v>0.02712886209495102</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -676,10 +676,10 @@
         <v>33</v>
       </c>
       <c r="D7" s="1">
-        <v>0.119166957538177</v>
+        <v>0.1198115020131196</v>
       </c>
       <c r="E7" s="1">
-        <v>0.01258457374830835</v>
+        <v>0.0106908993719097</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -693,10 +693,10 @@
         <v>34</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1008695418103936</v>
+        <v>0.1016486702921646</v>
       </c>
       <c r="E8" s="1">
-        <v>0.01491646778042965</v>
+        <v>0.01920438957476001</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -710,10 +710,10 @@
         <v>35</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02766362649330089</v>
+        <v>0.027924091473894</v>
       </c>
       <c r="E9" s="1">
-        <v>0.01661985018726586</v>
+        <v>0.0260188809578632</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -727,10 +727,10 @@
         <v>36</v>
       </c>
       <c r="D10" s="1">
-        <v>0.1215121289293207</v>
+        <v>0.1227185989656035</v>
       </c>
       <c r="E10" s="1">
-        <v>0.01713688610240327</v>
+        <v>0.01623176494760625</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -744,10 +744,10 @@
         <v>37</v>
       </c>
       <c r="D11" s="1">
-        <v>0.2489665437874733</v>
+        <v>0.2471782538709183</v>
       </c>
       <c r="E11" s="1">
-        <v>-9.689922480626834E-05</v>
+        <v>0.02354879348774119</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -761,10 +761,10 @@
         <v>38</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1048219237845962</v>
+        <v>0.1037825669493372</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.002849002849002913</v>
+        <v>-0.005918367346938846</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -775,7 +775,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>0.007137218682597535</v>
+        <v>0.01595972147139291</v>
       </c>
     </row>
     <row r="16" spans="1:5">

--- a/WS_holdings.xlsx
+++ b/WS_holdings.xlsx
@@ -134,7 +134,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-26 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-29 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -591,10 +591,10 @@
         <v>28</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03051953815244842</v>
+        <v>0.03064753504348171</v>
       </c>
       <c r="E2" s="1">
-        <v>0.02022058823529416</v>
+        <v>-0.004324324324324391</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -608,10 +608,10 @@
         <v>29</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02430002239040803</v>
+        <v>0.02404077155223762</v>
       </c>
       <c r="E3" s="1">
-        <v>0.00512070226773953</v>
+        <v>0.008976225133430438</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -625,10 +625,10 @@
         <v>30</v>
       </c>
       <c r="D4" s="1">
-        <v>0.05277479687260463</v>
+        <v>0.05283177143310964</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01705653021442499</v>
+        <v>0.009103977000479047</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -642,10 +642,10 @@
         <v>31</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1380572891872484</v>
+        <v>0.1381635180478894</v>
       </c>
       <c r="E5" s="1">
-        <v>0.01674145667932336</v>
+        <v>-0.001188253267696449</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -659,10 +659,10 @@
         <v>32</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03128466983225348</v>
+        <v>0.03162860362149068</v>
       </c>
       <c r="E6" s="1">
-        <v>0.02712886209495102</v>
+        <v>-0.01467351430667652</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -676,10 +676,10 @@
         <v>33</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1198115020131196</v>
+        <v>0.1191901530794584</v>
       </c>
       <c r="E7" s="1">
-        <v>0.0106908993719097</v>
+        <v>-0.00912336374454592</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -693,10 +693,10 @@
         <v>34</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1016486702921646</v>
+        <v>0.1019733054044395</v>
       </c>
       <c r="E8" s="1">
-        <v>0.01920438957476001</v>
+        <v>-0.004806767929244393</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -710,10 +710,10 @@
         <v>35</v>
       </c>
       <c r="D9" s="1">
-        <v>0.027924091473894</v>
+        <v>0.02820057181431918</v>
       </c>
       <c r="E9" s="1">
-        <v>0.0260188809578632</v>
+        <v>-0.004712746858168804</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -727,10 +727,10 @@
         <v>36</v>
       </c>
       <c r="D10" s="1">
-        <v>0.1227185989656035</v>
+        <v>0.1227514593177937</v>
       </c>
       <c r="E10" s="1">
-        <v>0.01623176494760625</v>
+        <v>-0.01112009704811967</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -744,10 +744,10 @@
         <v>37</v>
       </c>
       <c r="D11" s="1">
-        <v>0.2471782538709183</v>
+        <v>0.2490246396378509</v>
       </c>
       <c r="E11" s="1">
-        <v>0.02354879348774119</v>
+        <v>-0.007006248816511906</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -761,10 +761,10 @@
         <v>38</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1037825669493372</v>
+        <v>0.1015476710479292</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.005918367346938846</v>
+        <v>0.004777253130774151</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -775,7 +775,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>0.01595972147139291</v>
+        <v>-0.004399128380256467</v>
       </c>
     </row>
     <row r="16" spans="1:5">

--- a/WS_holdings.xlsx
+++ b/WS_holdings.xlsx
@@ -134,7 +134,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-29 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-30 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -591,10 +591,10 @@
         <v>28</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03064753504348171</v>
+        <v>0.03064983773323513</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.004324324324324391</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -608,10 +608,10 @@
         <v>29</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02404077155223762</v>
+        <v>0.02436374617732993</v>
       </c>
       <c r="E3" s="1">
-        <v>0.008976225133430438</v>
+        <v>-0.007694157249338862</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -625,10 +625,10 @@
         <v>30</v>
       </c>
       <c r="D4" s="1">
-        <v>0.05283177143310964</v>
+        <v>0.05354831658433233</v>
       </c>
       <c r="E4" s="1">
-        <v>0.009103977000479047</v>
+        <v>-0.009021842355175558</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -642,10 +642,10 @@
         <v>31</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1381635180478894</v>
+        <v>0.1386091040394344</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.001188253267696449</v>
+        <v>-0.006118286879673751</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -659,10 +659,10 @@
         <v>32</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03162860362149068</v>
+        <v>0.03130220326449595</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.01467351430667652</v>
+        <v>-0.006701414743112366</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -676,10 +676,10 @@
         <v>33</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1191901530794584</v>
+        <v>0.1186245827266151</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.00912336374454592</v>
+        <v>0.01120896717373898</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -693,10 +693,10 @@
         <v>34</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1019733054044395</v>
+        <v>0.1019315533796987</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.004806767929244393</v>
+        <v>0.005989180834621299</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -710,10 +710,10 @@
         <v>35</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02820057181431918</v>
+        <v>0.02819168851513697</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.004712746858168804</v>
+        <v>0.0006764374295378239</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -727,10 +727,10 @@
         <v>36</v>
       </c>
       <c r="D10" s="1">
-        <v>0.1227514593177937</v>
+        <v>0.121922805250158</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.01112009704811967</v>
+        <v>0.007769372316499767</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -744,10 +744,10 @@
         <v>37</v>
       </c>
       <c r="D11" s="1">
-        <v>0.2490246396378509</v>
+        <v>0.2483725337130391</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.007006248816511906</v>
+        <v>-0.007151029748283744</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -761,10 +761,10 @@
         <v>38</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1015476710479292</v>
+        <v>0.1024836286165243</v>
       </c>
       <c r="E12" s="1">
-        <v>0.004777253130774151</v>
+        <v>0.000557795135944561</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -772,10 +772,10 @@
         <v>16</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.004399128380256467</v>
+        <v>-0.0005408576407591736</v>
       </c>
     </row>
     <row r="16" spans="1:5">

--- a/WS_holdings.xlsx
+++ b/WS_holdings.xlsx
@@ -134,7 +134,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-30 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-31 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -591,10 +591,10 @@
         <v>28</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03064983773323513</v>
+        <v>0.03066642390291778</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>-0.005066956207021356</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -608,10 +608,10 @@
         <v>29</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02436374617732993</v>
+        <v>0.02418937068902089</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.007694157249338862</v>
+        <v>0.005330748727889523</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -625,10 +625,10 @@
         <v>30</v>
       </c>
       <c r="D4" s="1">
-        <v>0.05354831658433233</v>
+        <v>0.05309392837056059</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.009021842355175558</v>
+        <v>-0.003593675131768115</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -642,10 +642,10 @@
         <v>31</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1386091040394344</v>
+        <v>0.1378356032159546</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.006118286879673751</v>
+        <v>0.008207934336525335</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -659,10 +659,10 @@
         <v>32</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03130220326449595</v>
+        <v>0.03110925989896206</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.006701414743112366</v>
+        <v>-0.006746626686656598</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -676,10 +676,10 @@
         <v>33</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1186245827266151</v>
+        <v>0.1200191550574465</v>
       </c>
       <c r="E7" s="1">
-        <v>0.01120896717373898</v>
+        <v>0.007389812615465896</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -693,10 +693,10 @@
         <v>34</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1019315533796987</v>
+        <v>0.1025975305439612</v>
       </c>
       <c r="E8" s="1">
-        <v>0.005989180834621299</v>
+        <v>0.00019204916458615</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -710,10 +710,10 @@
         <v>35</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02819168851513697</v>
+        <v>0.0282260246895721</v>
       </c>
       <c r="E9" s="1">
-        <v>0.0006764374295378239</v>
+        <v>-0.002929247408742675</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -727,10 +727,10 @@
         <v>36</v>
       </c>
       <c r="D10" s="1">
-        <v>0.121922805250158</v>
+        <v>0.1229365600958751</v>
       </c>
       <c r="E10" s="1">
-        <v>0.007769372316499767</v>
+        <v>-0.006897950902820082</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -744,10 +744,10 @@
         <v>37</v>
       </c>
       <c r="D11" s="1">
-        <v>0.2483725337130391</v>
+        <v>0.2467298600658206</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.007151029748283744</v>
+        <v>0.01661384807452237</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -761,10 +761,10 @@
         <v>38</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1024836286165243</v>
+        <v>0.1025962834699087</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000557795135944561</v>
+        <v>0.007147232999795916</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -772,10 +772,10 @@
         <v>16</v>
       </c>
       <c r="D13" s="1">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.0005408576407591736</v>
+        <v>0.005512566141690378</v>
       </c>
     </row>
     <row r="16" spans="1:5">

--- a/WS_holdings.xlsx
+++ b/WS_holdings.xlsx
@@ -134,7 +134,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-31 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-05 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -591,10 +591,10 @@
         <v>28</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03066642390291778</v>
+        <v>0.0304985296988815</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.005066956207021356</v>
+        <v>0.002861230329041398</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -608,10 +608,10 @@
         <v>29</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02418937068902089</v>
+        <v>0.0238939711464819</v>
       </c>
       <c r="E3" s="1">
-        <v>0.005330748727889523</v>
+        <v>0.01036644165863065</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -625,10 +625,10 @@
         <v>30</v>
       </c>
       <c r="D4" s="1">
-        <v>0.05309392837056059</v>
+        <v>0.05184250000582163</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.003593675131768115</v>
+        <v>0.01205690860863284</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -642,10 +642,10 @@
         <v>31</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1378356032159546</v>
+        <v>0.1365286088253855</v>
       </c>
       <c r="E5" s="1">
-        <v>0.008207934336525335</v>
+        <v>0.004920257889378998</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -659,10 +659,10 @@
         <v>32</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03110925989896206</v>
+        <v>0.03119259173648242</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.006746626686656598</v>
+        <v>-0.02424687729610586</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -676,10 +676,10 @@
         <v>33</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1200191550574465</v>
+        <v>0.119930071687061</v>
       </c>
       <c r="E7" s="1">
-        <v>0.007389812615465896</v>
+        <v>0.01868916288124578</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -693,10 +693,10 @@
         <v>34</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1025975305439612</v>
+        <v>0.1015286645905677</v>
       </c>
       <c r="E8" s="1">
-        <v>0.00019204916458615</v>
+        <v>0.01068090787716947</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -710,10 +710,10 @@
         <v>35</v>
       </c>
       <c r="D9" s="1">
-        <v>0.0282260246895721</v>
+        <v>0.02789644050228864</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.002929247408742675</v>
+        <v>0.01232354918216427</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -727,10 +727,10 @@
         <v>36</v>
       </c>
       <c r="D10" s="1">
-        <v>0.1229365600958751</v>
+        <v>0.1214332803911358</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.006897950902820082</v>
+        <v>0.007266855066612843</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -744,10 +744,10 @@
         <v>37</v>
       </c>
       <c r="D11" s="1">
-        <v>0.2467298600658206</v>
+        <v>0.251727709522965</v>
       </c>
       <c r="E11" s="1">
-        <v>0.01661384807452237</v>
+        <v>0.0182238667900092</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -761,10 +761,10 @@
         <v>38</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1025962834699087</v>
+        <v>0.1035276318929289</v>
       </c>
       <c r="E12" s="1">
-        <v>0.007147232999795916</v>
+        <v>0.01770087509944296</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -775,7 +775,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>0.005512566141690378</v>
+        <v>0.01184746617106325</v>
       </c>
     </row>
     <row r="16" spans="1:5">

--- a/WS_holdings.xlsx
+++ b/WS_holdings.xlsx
@@ -134,7 +134,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-05 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-06 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -591,10 +591,10 @@
         <v>28</v>
       </c>
       <c r="D2" s="1">
-        <v>0.0304985296988815</v>
+        <v>0.03022767169916129</v>
       </c>
       <c r="E2" s="1">
-        <v>0.002861230329041398</v>
+        <v>0.002853067047075664</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -608,10 +608,10 @@
         <v>29</v>
       </c>
       <c r="D3" s="1">
-        <v>0.0238939711464819</v>
+        <v>0.02385899793347262</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01036644165863065</v>
+        <v>0.004294917680744748</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -625,10 +625,10 @@
         <v>30</v>
       </c>
       <c r="D4" s="1">
-        <v>0.05184250000582163</v>
+        <v>0.05185323089158646</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01205690860863284</v>
+        <v>0.003573981415296634</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -642,10 +642,10 @@
         <v>31</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1365286088253855</v>
+        <v>0.1355939204050834</v>
       </c>
       <c r="E5" s="1">
-        <v>0.004920257889378998</v>
+        <v>-0.002870167145027747</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -659,10 +659,10 @@
         <v>32</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03119259173648242</v>
+        <v>0.03007989821556251</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.02424687729610586</v>
+        <v>-0.0030120481927709</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -676,10 +676,10 @@
         <v>33</v>
       </c>
       <c r="D7" s="1">
-        <v>0.119930071687061</v>
+        <v>0.120740989542119</v>
       </c>
       <c r="E7" s="1">
-        <v>0.01868916288124578</v>
+        <v>0.00458657153777553</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -693,10 +693,10 @@
         <v>34</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1015286645905677</v>
+        <v>0.1014116122583677</v>
       </c>
       <c r="E8" s="1">
-        <v>0.01068090787716947</v>
+        <v>-0.002075863370447184</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -710,10 +710,10 @@
         <v>35</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02789644050228864</v>
+        <v>0.02790956601956012</v>
       </c>
       <c r="E9" s="1">
-        <v>0.01232354918216427</v>
+        <v>0.001106684373616718</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -727,10 +727,10 @@
         <v>36</v>
       </c>
       <c r="D10" s="1">
-        <v>0.1214332803911358</v>
+        <v>0.12088355461605</v>
       </c>
       <c r="E10" s="1">
-        <v>0.007266855066612843</v>
+        <v>-0.001202404809619195</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -744,10 +744,10 @@
         <v>37</v>
       </c>
       <c r="D11" s="1">
-        <v>0.251727709522965</v>
+        <v>0.2533140323398635</v>
       </c>
       <c r="E11" s="1">
-        <v>0.0182238667900092</v>
+        <v>-0.002362133187971183</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -761,10 +761,10 @@
         <v>38</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1035276318929289</v>
+        <v>0.1041265260791734</v>
       </c>
       <c r="E12" s="1">
-        <v>0.01770087509944296</v>
+        <v>0.004299394176275229</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -775,7 +775,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>0.01184746617106325</v>
+        <v>-2.761668382011973E-05</v>
       </c>
     </row>
     <row r="16" spans="1:5">

--- a/WS_holdings.xlsx
+++ b/WS_holdings.xlsx
@@ -134,7 +134,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-06 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-08 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -591,10 +591,10 @@
         <v>28</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03022767169916129</v>
+        <v>0.03036482766642112</v>
       </c>
       <c r="E2" s="1">
-        <v>0.002853067047075664</v>
+        <v>-0.002840909090909283</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -608,10 +608,10 @@
         <v>29</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02385899793347262</v>
+        <v>0.02394484453146202</v>
       </c>
       <c r="E3" s="1">
-        <v>0.004294917680744748</v>
+        <v>-0.001426872770511123</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -625,10 +625,10 @@
         <v>30</v>
       </c>
       <c r="D4" s="1">
-        <v>0.05185323089158646</v>
+        <v>0.05192833326871631</v>
       </c>
       <c r="E4" s="1">
-        <v>0.003573981415296634</v>
+        <v>0.001903855306996549</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -642,10 +642,10 @@
         <v>31</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1355939204050834</v>
+        <v>0.1345295962082736</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.002870167145027747</v>
+        <v>0.002893617021276773</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -659,10 +659,10 @@
         <v>32</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03007989821556251</v>
+        <v>0.03013293335401078</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.0030120481927709</v>
+        <v>-0.01353383458646606</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -676,10 +676,10 @@
         <v>33</v>
       </c>
       <c r="D7" s="1">
-        <v>0.120740989542119</v>
+        <v>0.1209874045283604</v>
       </c>
       <c r="E7" s="1">
-        <v>0.00458657153777553</v>
+        <v>0.005595828564161076</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -693,10 +693,10 @@
         <v>34</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1014116122583677</v>
+        <v>0.1005570794401582</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.002075863370447184</v>
+        <v>0.003616980772891631</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -710,10 +710,10 @@
         <v>35</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02790956601956012</v>
+        <v>0.02746566413367968</v>
       </c>
       <c r="E9" s="1">
-        <v>0.001106684373616718</v>
+        <v>0.0006749156355454478</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -727,10 +727,10 @@
         <v>36</v>
       </c>
       <c r="D10" s="1">
-        <v>0.12088355461605</v>
+        <v>0.1210842088938859</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.001202404809619195</v>
+        <v>0.0006003602161297472</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -744,10 +744,10 @@
         <v>37</v>
       </c>
       <c r="D11" s="1">
-        <v>0.2533140323398635</v>
+        <v>0.253793422634048</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.002362133187971183</v>
+        <v>0.01496598639455793</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -761,10 +761,10 @@
         <v>38</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1041265260791734</v>
+        <v>0.105211685340984</v>
       </c>
       <c r="E12" s="1">
-        <v>0.004299394176275229</v>
+        <v>0.002321532211259525</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -772,10 +772,10 @@
         <v>16</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>-2.761668382011973E-05</v>
+        <v>0.005134387236847227</v>
       </c>
     </row>
     <row r="16" spans="1:5">

--- a/WS_holdings.xlsx
+++ b/WS_holdings.xlsx
@@ -134,7 +134,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-08 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-09 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -591,10 +591,10 @@
         <v>28</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03036482766642112</v>
+        <v>0.03012389620326952</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.002840909090909283</v>
+        <v>-0.001780626780626737</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -608,10 +608,10 @@
         <v>29</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02394484453146202</v>
+        <v>0.02378853871524316</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.001426872770511123</v>
+        <v>0.000476303881876472</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -625,10 +625,10 @@
         <v>30</v>
       </c>
       <c r="D4" s="1">
-        <v>0.05192833326871631</v>
+        <v>0.05176143405521942</v>
       </c>
       <c r="E4" s="1">
-        <v>0.001903855306996549</v>
+        <v>-0.002850356294536782</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -642,10 +642,10 @@
         <v>31</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1345295962082736</v>
+        <v>0.1342296861503509</v>
       </c>
       <c r="E5" s="1">
-        <v>0.002893617021276773</v>
+        <v>0.008825526137135054</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -659,10 +659,10 @@
         <v>32</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03013293335401078</v>
+        <v>0.02957327855443099</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.01353383458646606</v>
+        <v>-0.00838414634146345</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -676,10 +676,10 @@
         <v>33</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1209874045283604</v>
+        <v>0.1210429479355334</v>
       </c>
       <c r="E7" s="1">
-        <v>0.005595828564161076</v>
+        <v>0.0101176173011257</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -693,10 +693,10 @@
         <v>34</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1005570794401582</v>
+        <v>0.1004052729113233</v>
       </c>
       <c r="E8" s="1">
-        <v>0.003616980772891631</v>
+        <v>0.009484066767829979</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -710,10 +710,10 @@
         <v>35</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02746566413367968</v>
+        <v>0.02734380744389739</v>
       </c>
       <c r="E9" s="1">
-        <v>0.0006749156355454478</v>
+        <v>0.007643884892086339</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -727,10 +727,10 @@
         <v>36</v>
       </c>
       <c r="D10" s="1">
-        <v>0.1210842088938859</v>
+        <v>0.1205380141940744</v>
       </c>
       <c r="E10" s="1">
-        <v>0.0006003602161297472</v>
+        <v>0.007200000000000095</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -744,10 +744,10 @@
         <v>37</v>
       </c>
       <c r="D11" s="1">
-        <v>0.253793422634048</v>
+        <v>0.2562758719780215</v>
       </c>
       <c r="E11" s="1">
-        <v>0.01496598639455793</v>
+        <v>0.008936550491510209</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -761,10 +761,10 @@
         <v>38</v>
       </c>
       <c r="D12" s="1">
-        <v>0.105211685340984</v>
+        <v>0.1049172518586359</v>
       </c>
       <c r="E12" s="1">
-        <v>0.002321532211259525</v>
+        <v>0.0009650646593322154</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -772,10 +772,10 @@
         <v>16</v>
       </c>
       <c r="D13" s="1">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E13" s="1">
-        <v>0.005134387236847227</v>
+        <v>0.006392130892711734</v>
       </c>
     </row>
     <row r="16" spans="1:5">

--- a/WS_holdings.xlsx
+++ b/WS_holdings.xlsx
@@ -134,7 +134,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-09 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-21 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -591,10 +591,10 @@
         <v>28</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03012389620326952</v>
+        <v>0.03096465881679771</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.001780626780626737</v>
+        <v>0.006887052341597588</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -608,10 +608,10 @@
         <v>29</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02378853871524316</v>
+        <v>0.02463517182500707</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000476303881876472</v>
+        <v>-0.006400000000000072</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -625,10 +625,10 @@
         <v>30</v>
       </c>
       <c r="D4" s="1">
-        <v>0.05176143405521942</v>
+        <v>0.05203379592145786</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.002850356294536782</v>
+        <v>0.005401596993893865</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -642,10 +642,10 @@
         <v>31</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1342296861503509</v>
+        <v>0.1386681324568943</v>
       </c>
       <c r="E5" s="1">
-        <v>0.008825526137135054</v>
+        <v>0.01420640104506843</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -659,10 +659,10 @@
         <v>32</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02957327855443099</v>
+        <v>0.02840799223080062</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.00838414634146345</v>
+        <v>0.01498422712933767</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -676,10 +676,10 @@
         <v>33</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1210429479355334</v>
+        <v>0.1206733449896883</v>
       </c>
       <c r="E7" s="1">
-        <v>0.0101176173011257</v>
+        <v>0.01374353801538275</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -693,10 +693,10 @@
         <v>34</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1004052729113233</v>
+        <v>0.09992828394478079</v>
       </c>
       <c r="E8" s="1">
-        <v>0.009484066767829979</v>
+        <v>0.01439666603523393</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -710,10 +710,10 @@
         <v>35</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02734380744389739</v>
+        <v>0.02777661299423995</v>
       </c>
       <c r="E9" s="1">
-        <v>0.007643884892086339</v>
+        <v>0.01869775626924763</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -727,10 +727,10 @@
         <v>36</v>
       </c>
       <c r="D10" s="1">
-        <v>0.1205380141940744</v>
+        <v>0.1190874689072682</v>
       </c>
       <c r="E10" s="1">
-        <v>0.007200000000000095</v>
+        <v>0.01488933601609665</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -744,10 +744,10 @@
         <v>37</v>
       </c>
       <c r="D11" s="1">
-        <v>0.2562758719780215</v>
+        <v>0.2549933471557863</v>
       </c>
       <c r="E11" s="1">
-        <v>0.008936550491510209</v>
+        <v>0.01026602392429932</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -761,10 +761,10 @@
         <v>38</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1049172518586359</v>
+        <v>0.1028311907572789</v>
       </c>
       <c r="E12" s="1">
-        <v>0.0009650646593322154</v>
+        <v>0.003131728322568028</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -772,10 +772,10 @@
         <v>16</v>
       </c>
       <c r="D13" s="1">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>0.006392130892711734</v>
+        <v>0.01106171630202013</v>
       </c>
     </row>
     <row r="16" spans="1:5">

--- a/WS_holdings.xlsx
+++ b/WS_holdings.xlsx
@@ -134,7 +134,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-21 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-22 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -591,10 +591,10 @@
         <v>28</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03096465881679771</v>
+        <v>0.03083680604270389</v>
       </c>
       <c r="E2" s="1">
-        <v>0.006887052341597588</v>
+        <v>-0.004787961696306242</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -608,10 +608,10 @@
         <v>29</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02463517182500707</v>
+        <v>0.02420970582770558</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.006400000000000072</v>
+        <v>-0.007131354957441993</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -625,10 +625,10 @@
         <v>30</v>
       </c>
       <c r="D4" s="1">
-        <v>0.05203379592145786</v>
+        <v>0.05174250065409539</v>
       </c>
       <c r="E4" s="1">
-        <v>0.005401596993893865</v>
+        <v>-0.007241298761971438</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -642,10 +642,10 @@
         <v>31</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1386681324568943</v>
+        <v>0.1390994291358736</v>
       </c>
       <c r="E5" s="1">
-        <v>0.01420640104506843</v>
+        <v>-0.002898084044437144</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -659,10 +659,10 @@
         <v>32</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02840799223080062</v>
+        <v>0.02851820375924739</v>
       </c>
       <c r="E6" s="1">
-        <v>0.01498422712933767</v>
+        <v>-0.01320901320901324</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -676,10 +676,10 @@
         <v>33</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1206733449896883</v>
+        <v>0.1209934287111856</v>
       </c>
       <c r="E7" s="1">
-        <v>0.01374353801538275</v>
+        <v>-0.007711442786069833</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -693,10 +693,10 @@
         <v>34</v>
       </c>
       <c r="D8" s="1">
-        <v>0.09992828394478079</v>
+        <v>0.1002578936990706</v>
       </c>
       <c r="E8" s="1">
-        <v>0.01439666603523393</v>
+        <v>-0.003548085901027176</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -710,10 +710,10 @@
         <v>35</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02777661299423995</v>
+        <v>0.02798639576373695</v>
       </c>
       <c r="E9" s="1">
-        <v>0.01869775626924763</v>
+        <v>-0.0161952062189592</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -727,10 +727,10 @@
         <v>36</v>
       </c>
       <c r="D10" s="1">
-        <v>0.1190874689072682</v>
+        <v>0.1195383034471775</v>
       </c>
       <c r="E10" s="1">
-        <v>0.01488933601609665</v>
+        <v>-0.01050753370340995</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -744,10 +744,10 @@
         <v>37</v>
       </c>
       <c r="D11" s="1">
-        <v>0.2549933471557863</v>
+        <v>0.2547926707188982</v>
       </c>
       <c r="E11" s="1">
-        <v>0.01026602392429932</v>
+        <v>-0.01007334099142876</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -761,10 +761,10 @@
         <v>38</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1028311907572789</v>
+        <v>0.1020246622403052</v>
       </c>
       <c r="E12" s="1">
-        <v>0.003131728322568028</v>
+        <v>-0.005853658536585371</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -772,10 +772,10 @@
         <v>16</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.01106171630202013</v>
+        <v>-0.007636682238560955</v>
       </c>
     </row>
     <row r="16" spans="1:5">

--- a/WS_holdings.xlsx
+++ b/WS_holdings.xlsx
@@ -134,7 +134,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-22 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-23 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -591,10 +591,10 @@
         <v>28</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03083680604270389</v>
+        <v>0.03092532749574342</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.004787961696306242</v>
+        <v>0.003780068728522323</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -608,10 +608,10 @@
         <v>29</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02420970582770558</v>
+        <v>0.02422203379731474</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.007131354957441993</v>
+        <v>-0.001390176088971073</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -625,10 +625,10 @@
         <v>30</v>
       </c>
       <c r="D4" s="1">
-        <v>0.05174250065409539</v>
+        <v>0.05176311621840524</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.007241298761971438</v>
+        <v>-0.0007058823529412228</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -642,10 +642,10 @@
         <v>31</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1390994291358736</v>
+        <v>0.1397636377900123</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.002898084044437144</v>
+        <v>0.006135959954787662</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -659,10 +659,10 @@
         <v>32</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02851820375924739</v>
+        <v>0.02835806798318123</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.01320901320901324</v>
+        <v>0.01102362204724394</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -676,10 +676,10 @@
         <v>33</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1209934287111856</v>
+        <v>0.1209843135667486</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.007711442786069833</v>
+        <v>0.0119077463023316</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -693,10 +693,10 @@
         <v>34</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1002578936990706</v>
+        <v>0.1006709622291646</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.003548085901027176</v>
+        <v>0.01236881559220393</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -710,10 +710,10 @@
         <v>35</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02798639576373695</v>
+        <v>0.02774503029306521</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.0161952062189592</v>
+        <v>0.01799824407374895</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -727,10 +727,10 @@
         <v>36</v>
       </c>
       <c r="D10" s="1">
-        <v>0.1195383034471775</v>
+        <v>0.1191924858343993</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.01050753370340995</v>
+        <v>0.0206371468643558</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -744,10 +744,10 @@
         <v>37</v>
       </c>
       <c r="D11" s="1">
-        <v>0.2547926707188982</v>
+        <v>0.2541670502630008</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.01007334099142876</v>
+        <v>0.01508524502365427</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -761,10 +761,10 @@
         <v>38</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1020246622403052</v>
+        <v>0.1022079745289646</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.005853658536585371</v>
+        <v>0.01256133464180564</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -772,10 +772,10 @@
         <v>16</v>
       </c>
       <c r="D13" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.007636682238560955</v>
+        <v>0.01197990755238787</v>
       </c>
     </row>
     <row r="16" spans="1:5">

--- a/WS_holdings.xlsx
+++ b/WS_holdings.xlsx
@@ -134,7 +134,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-23 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-26 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -591,10 +591,10 @@
         <v>28</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03092532749574342</v>
+        <v>0.03067474672912161</v>
       </c>
       <c r="E2" s="1">
-        <v>0.003780068728522323</v>
+        <v>0.003765833618623704</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -608,10 +608,10 @@
         <v>29</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02422203379731474</v>
+        <v>0.02390201695170641</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.001390176088971073</v>
+        <v>-0.00649651972157772</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -625,10 +625,10 @@
         <v>30</v>
       </c>
       <c r="D4" s="1">
-        <v>0.05176311621840524</v>
+        <v>0.05111423375315943</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.0007058823529412228</v>
+        <v>-0.01059571462208608</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -642,10 +642,10 @@
         <v>31</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1397636377900123</v>
+        <v>0.1389565354264186</v>
       </c>
       <c r="E5" s="1">
-        <v>0.006135959954787662</v>
+        <v>0.00128390306531867</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -659,10 +659,10 @@
         <v>32</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02835806798318123</v>
+        <v>0.02833127060394097</v>
       </c>
       <c r="E6" s="1">
-        <v>0.01102362204724394</v>
+        <v>0.007009345794392496</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -676,10 +676,10 @@
         <v>33</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1209843135667486</v>
+        <v>0.1209756865384459</v>
       </c>
       <c r="E7" s="1">
-        <v>0.0119077463023316</v>
+        <v>0.004211569428960615</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -693,10 +693,10 @@
         <v>34</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1006709622291646</v>
+        <v>0.1007096504939164</v>
       </c>
       <c r="E8" s="1">
-        <v>0.01236881559220393</v>
+        <v>-0.001851166234727808</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -710,10 +710,10 @@
         <v>35</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02774503029306521</v>
+        <v>0.02791003251084924</v>
       </c>
       <c r="E9" s="1">
-        <v>0.01799824407374895</v>
+        <v>0.007115135834411257</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -727,10 +727,10 @@
         <v>36</v>
       </c>
       <c r="D10" s="1">
-        <v>0.1191924858343993</v>
+        <v>0.1202121482470183</v>
       </c>
       <c r="E10" s="1">
-        <v>0.0206371468643558</v>
+        <v>0.003729878288182276</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -744,10 +744,10 @@
         <v>37</v>
       </c>
       <c r="D11" s="1">
-        <v>0.2541670502630008</v>
+        <v>0.2549469812272943</v>
       </c>
       <c r="E11" s="1">
-        <v>0.01508524502365427</v>
+        <v>0.008265916285613795</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -761,10 +761,10 @@
         <v>38</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1022079745289646</v>
+        <v>0.1022666975181289</v>
       </c>
       <c r="E12" s="1">
-        <v>0.01256133464180564</v>
+        <v>0.003101376235704612</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -775,7 +775,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>0.01197990755238787</v>
+        <v>0.00319020009045401</v>
       </c>
     </row>
     <row r="16" spans="1:5">

--- a/WS_holdings.xlsx
+++ b/WS_holdings.xlsx
@@ -134,7 +134,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-26 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-27 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -591,10 +591,10 @@
         <v>28</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03067474672912161</v>
+        <v>0.03069234799026212</v>
       </c>
       <c r="E2" s="1">
-        <v>0.003765833618623704</v>
+        <v>0.001023192360163794</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -608,10 +608,10 @@
         <v>29</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02390201695170641</v>
+        <v>0.0236712210955141</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.00649651972157772</v>
+        <v>-0.007473143390938741</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -625,10 +625,10 @@
         <v>30</v>
       </c>
       <c r="D4" s="1">
-        <v>0.05111423375315943</v>
+        <v>0.05041181813241836</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.01059571462208608</v>
+        <v>-0.0004759638267491928</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -642,10 +642,10 @@
         <v>31</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1389565354264186</v>
+        <v>0.1386924853688297</v>
       </c>
       <c r="E5" s="1">
-        <v>0.00128390306531867</v>
+        <v>-0.004007052412245526</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -659,10 +659,10 @@
         <v>32</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02833127060394097</v>
+        <v>0.02843912776841926</v>
       </c>
       <c r="E6" s="1">
-        <v>0.007009345794392496</v>
+        <v>0.01160092807424595</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -676,10 +676,10 @@
         <v>33</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1209756865384459</v>
+        <v>0.1210988544650504</v>
       </c>
       <c r="E7" s="1">
-        <v>0.004211569428960615</v>
+        <v>0.001726902676699282</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -693,10 +693,10 @@
         <v>34</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1007096504939164</v>
+        <v>0.1002035508125448</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.001851166234727808</v>
+        <v>0.007789317507418403</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -710,10 +710,10 @@
         <v>35</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02791003251084924</v>
+        <v>0.0280192292356647</v>
       </c>
       <c r="E9" s="1">
-        <v>0.007115135834411257</v>
+        <v>-0.002569043031470764</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -727,10 +727,10 @@
         <v>36</v>
       </c>
       <c r="D10" s="1">
-        <v>0.1202121482470183</v>
+        <v>0.1202768178136719</v>
       </c>
       <c r="E10" s="1">
-        <v>0.003729878288182276</v>
+        <v>0.00782319577547419</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -744,10 +744,10 @@
         <v>37</v>
       </c>
       <c r="D11" s="1">
-        <v>0.2549469812272943</v>
+        <v>0.2562369046350447</v>
       </c>
       <c r="E11" s="1">
-        <v>0.008265916285613795</v>
+        <v>-0.004011861154718188</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -761,10 +761,10 @@
         <v>38</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1022666975181289</v>
+        <v>0.10225764268258</v>
       </c>
       <c r="E12" s="1">
-        <v>0.003101376235704612</v>
+        <v>-0.002898550724637516</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -775,7 +775,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>0.00319020009045401</v>
+        <v>0.0001389076098554654</v>
       </c>
     </row>
     <row r="16" spans="1:5">

--- a/WS_holdings.xlsx
+++ b/WS_holdings.xlsx
@@ -134,7 +134,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-27 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-28 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -591,10 +591,10 @@
         <v>28</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03069234799026212</v>
+        <v>0.03071948499600446</v>
       </c>
       <c r="E2" s="1">
-        <v>0.001023192360163794</v>
+        <v>-0.002044293015332266</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -608,10 +608,10 @@
         <v>29</v>
       </c>
       <c r="D3" s="1">
-        <v>0.0236712210955141</v>
+        <v>0.0234910595790896</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.007473143390938741</v>
+        <v>-0.0007058823529412228</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -625,10 +625,10 @@
         <v>30</v>
       </c>
       <c r="D4" s="1">
-        <v>0.05041181813241836</v>
+        <v>0.05038082565047302</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.0004759638267491928</v>
+        <v>-0.0002380952380951484</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -642,10 +642,10 @@
         <v>31</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1386924853688297</v>
+        <v>0.1381175517317821</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.004007052412245526</v>
+        <v>-0.003379465722561981</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -659,10 +659,10 @@
         <v>32</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02843912776841926</v>
+        <v>0.02876505235948436</v>
       </c>
       <c r="E6" s="1">
-        <v>0.01160092807424595</v>
+        <v>0.03516819571865448</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -676,10 +676,10 @@
         <v>33</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1210988544650504</v>
+        <v>0.1212911321397092</v>
       </c>
       <c r="E7" s="1">
-        <v>0.001726902676699282</v>
+        <v>-0.001354512991011081</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -693,10 +693,10 @@
         <v>34</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1002035508125448</v>
+        <v>0.100970042577913</v>
       </c>
       <c r="E8" s="1">
-        <v>0.007789317507418403</v>
+        <v>-0.002576370997423694</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -710,10 +710,10 @@
         <v>35</v>
       </c>
       <c r="D9" s="1">
-        <v>0.0280192292356647</v>
+        <v>0.0279433650839945</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.002569043031470764</v>
+        <v>0.002146383344065139</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -727,10 +727,10 @@
         <v>36</v>
       </c>
       <c r="D10" s="1">
-        <v>0.1202768178136719</v>
+        <v>0.1212009311750175</v>
       </c>
       <c r="E10" s="1">
-        <v>0.00782319577547419</v>
+        <v>0.003104987385988744</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -744,10 +744,10 @@
         <v>37</v>
       </c>
       <c r="D11" s="1">
-        <v>0.2562369046350447</v>
+        <v>0.2551734722138104</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.004011861154718188</v>
+        <v>-0.007267950963222414</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -761,10 +761,10 @@
         <v>38</v>
       </c>
       <c r="D12" s="1">
-        <v>0.10225764268258</v>
+        <v>0.1019470824927219</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.002898550724637516</v>
+        <v>0.00670930232558109</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -775,7 +775,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>0.0001389076098554654</v>
+        <v>-0.0007052421813581455</v>
       </c>
     </row>
     <row r="16" spans="1:5">

--- a/WS_holdings.xlsx
+++ b/WS_holdings.xlsx
@@ -134,7 +134,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-28 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-29 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -591,10 +591,10 @@
         <v>28</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03071948499600446</v>
+        <v>0.03067832101342444</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.002044293015332266</v>
+        <v>0.006828269033799739</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -608,10 +608,10 @@
         <v>29</v>
       </c>
       <c r="D3" s="1">
-        <v>0.0234910595790896</v>
+        <v>0.02349104453016767</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.0007058823529412228</v>
+        <v>0.008712032022604399</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -625,10 +625,10 @@
         <v>30</v>
       </c>
       <c r="D4" s="1">
-        <v>0.05038082565047302</v>
+        <v>0.05040437750893875</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.0002380952380951484</v>
+        <v>0.01000238151940924</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -642,10 +642,10 @@
         <v>31</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1381175517317821</v>
+        <v>0.1377479338533687</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.003379465722561981</v>
+        <v>-0.005328596802842034</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -659,10 +659,10 @@
         <v>32</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02876505235948436</v>
+        <v>0.02979768193292584</v>
       </c>
       <c r="E6" s="1">
-        <v>0.03516819571865448</v>
+        <v>0.008862629246676468</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -676,10 +676,10 @@
         <v>33</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1212911321397092</v>
+        <v>0.1212123257705654</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.001354512991011081</v>
+        <v>0.0006165228113441668</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -693,10 +693,10 @@
         <v>34</v>
       </c>
       <c r="D8" s="1">
-        <v>0.100970042577913</v>
+        <v>0.1007809812876894</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.002576370997423694</v>
+        <v>0.005535055350553542</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -710,10 +710,10 @@
         <v>35</v>
       </c>
       <c r="D9" s="1">
-        <v>0.0279433650839945</v>
+        <v>0.02802310533332162</v>
       </c>
       <c r="E9" s="1">
-        <v>0.002146383344065139</v>
+        <v>0.004283572499464539</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -727,10 +727,10 @@
         <v>36</v>
       </c>
       <c r="D10" s="1">
-        <v>0.1212009311750175</v>
+        <v>0.1216630604596353</v>
       </c>
       <c r="E10" s="1">
-        <v>0.003104987385988744</v>
+        <v>0.01489649835558127</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -744,10 +744,10 @@
         <v>37</v>
       </c>
       <c r="D11" s="1">
-        <v>0.2551734722138104</v>
+        <v>0.2534976611741809</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.007267950963222414</v>
+        <v>-0.003704683778777418</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -761,10 +761,10 @@
         <v>38</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1019470824927219</v>
+        <v>0.1027035071357821</v>
       </c>
       <c r="E12" s="1">
-        <v>0.00670930232558109</v>
+        <v>0.02278896242651074</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -775,7 +775,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.0007052421813581455</v>
+        <v>0.004414709731991318</v>
       </c>
     </row>
     <row r="16" spans="1:5">

--- a/WS_holdings.xlsx
+++ b/WS_holdings.xlsx
@@ -134,7 +134,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-29 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-30 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -591,10 +591,10 @@
         <v>28</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03067832101342444</v>
+        <v>0.03075203951468531</v>
       </c>
       <c r="E2" s="1">
-        <v>0.006828269033799739</v>
+        <v>0.005764665988470918</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -608,10 +608,10 @@
         <v>29</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02349104453016767</v>
+        <v>0.0235915494195437</v>
       </c>
       <c r="E3" s="1">
-        <v>0.008712032022604399</v>
+        <v>0.006302521008403339</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -625,10 +625,10 @@
         <v>30</v>
       </c>
       <c r="D4" s="1">
-        <v>0.05040437750893875</v>
+        <v>0.05068478271949586</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01000238151940924</v>
+        <v>-0.0002357934449420673</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -642,10 +642,10 @@
         <v>31</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1377479338533687</v>
+        <v>0.136411712538538</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.005328596802842034</v>
+        <v>-0.004058441558441594</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -659,10 +659,10 @@
         <v>32</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02979768193292584</v>
+        <v>0.02992963708021476</v>
       </c>
       <c r="E6" s="1">
-        <v>0.008862629246676468</v>
+        <v>-0.02489019033674955</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -676,10 +676,10 @@
         <v>33</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1212123257705654</v>
+        <v>0.1207539622421322</v>
       </c>
       <c r="E7" s="1">
-        <v>0.0006165228113441668</v>
+        <v>-0.0009858287122613829</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -693,10 +693,10 @@
         <v>34</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1007809812876894</v>
+        <v>0.1008933945466013</v>
       </c>
       <c r="E8" s="1">
-        <v>0.005535055350553542</v>
+        <v>-0.008990825688073412</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -710,10 +710,10 @@
         <v>35</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02802310533332162</v>
+        <v>0.02801944661302948</v>
       </c>
       <c r="E9" s="1">
-        <v>0.004283572499464539</v>
+        <v>-0.01002345915973546</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -727,10 +727,10 @@
         <v>36</v>
       </c>
       <c r="D10" s="1">
-        <v>0.1216630604596353</v>
+        <v>0.1229327018444944</v>
       </c>
       <c r="E10" s="1">
-        <v>0.01489649835558127</v>
+        <v>-0.008768585589020161</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -744,10 +744,10 @@
         <v>37</v>
       </c>
       <c r="D11" s="1">
-        <v>0.2534976611741809</v>
+        <v>0.2514484605350525</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.003704683778777418</v>
+        <v>-0.01434262948207166</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -761,10 +761,10 @@
         <v>38</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1027035071357821</v>
+        <v>0.1045823129462125</v>
       </c>
       <c r="E12" s="1">
-        <v>0.02278896242651074</v>
+        <v>-0.009787314135140335</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -775,7 +775,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>0.004414709731991318</v>
+        <v>-0.007999530390517595</v>
       </c>
     </row>
     <row r="16" spans="1:5">

--- a/WS_holdings.xlsx
+++ b/WS_holdings.xlsx
@@ -134,7 +134,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-30 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-03 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -591,10 +591,10 @@
         <v>28</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03075203951468531</v>
+        <v>0.03117872994871421</v>
       </c>
       <c r="E2" s="1">
-        <v>0.005764665988470918</v>
+        <v>-0.004045853000674393</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -608,10 +608,10 @@
         <v>29</v>
       </c>
       <c r="D3" s="1">
-        <v>0.0235915494195437</v>
+        <v>0.02393167783955476</v>
       </c>
       <c r="E3" s="1">
-        <v>0.006302521008403339</v>
+        <v>0.001391788448155795</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -625,10 +625,10 @@
         <v>30</v>
       </c>
       <c r="D4" s="1">
-        <v>0.05068478271949586</v>
+        <v>0.05108145926576073</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.0002357934449420673</v>
+        <v>0.008018867924528328</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -642,10 +642,10 @@
         <v>31</v>
       </c>
       <c r="D5" s="1">
-        <v>0.136411712538538</v>
+        <v>0.1369536585288072</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.004058441558441594</v>
+        <v>0.008149959250203676</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -659,10 +659,10 @@
         <v>32</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02992963708021476</v>
+        <v>0.02942002913372351</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.02489019033674955</v>
+        <v>0.02852852852852861</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -676,10 +676,10 @@
         <v>33</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1207539622421322</v>
+        <v>0.1216077242045304</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.0009858287122613829</v>
+        <v>-0.001603552485506365</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -693,10 +693,10 @@
         <v>34</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1008933945466013</v>
+        <v>0.1007925728729907</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.008990825688073412</v>
+        <v>0.01036845028698385</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -710,10 +710,10 @@
         <v>35</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02801944661302948</v>
+        <v>0.02796227994241289</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.01002345915973546</v>
+        <v>0.01658767772511838</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -727,10 +727,10 @@
         <v>36</v>
       </c>
       <c r="D10" s="1">
-        <v>0.1229327018444944</v>
+        <v>0.1228373974204383</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.008768585589020161</v>
+        <v>0.005769230769230749</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -744,10 +744,10 @@
         <v>37</v>
       </c>
       <c r="D11" s="1">
-        <v>0.2514484605350525</v>
+        <v>0.2498406361937793</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.01434262948207166</v>
+        <v>-0.004131860235336404</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -761,10 +761,10 @@
         <v>38</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1045823129462125</v>
+        <v>0.104393834649288</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.009787314135140335</v>
+        <v>-0.006082493822467283</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -775,7 +775,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.007999530390517595</v>
+        <v>0.002627539175976024</v>
       </c>
     </row>
     <row r="16" spans="1:5">

--- a/WS_holdings.xlsx
+++ b/WS_holdings.xlsx
@@ -134,7 +134,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-03 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-04 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -591,10 +591,10 @@
         <v>28</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03117872994871421</v>
+        <v>0.03097120733000712</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.004045853000674393</v>
+        <v>-0.005754908598510355</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -608,10 +608,10 @@
         <v>29</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02393167783955476</v>
+        <v>0.02390218175336856</v>
       </c>
       <c r="E3" s="1">
-        <v>0.001391788448155795</v>
+        <v>-0.004864489228630919</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -625,10 +625,10 @@
         <v>30</v>
       </c>
       <c r="D4" s="1">
-        <v>0.05108145926576073</v>
+        <v>0.05135613448571712</v>
       </c>
       <c r="E4" s="1">
-        <v>0.008018867924528328</v>
+        <v>-0.004913430042115086</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -642,10 +642,10 @@
         <v>31</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1369536585288072</v>
+        <v>0.1377079921208408</v>
       </c>
       <c r="E5" s="1">
-        <v>0.008149959250203676</v>
+        <v>-0.006143896523847947</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -659,10 +659,10 @@
         <v>32</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02942002913372351</v>
+        <v>0.03018004003664627</v>
       </c>
       <c r="E6" s="1">
-        <v>0.02852852852852861</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -676,10 +676,10 @@
         <v>33</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1216077242045304</v>
+        <v>0.1210945391904059</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.001603552485506365</v>
+        <v>-0.01050160612799589</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -693,10 +693,10 @@
         <v>34</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1007925728729907</v>
+        <v>0.1015707545174934</v>
       </c>
       <c r="E8" s="1">
-        <v>0.01036845028698385</v>
+        <v>0.002932013927066324</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -710,10 +710,10 @@
         <v>35</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02796227994241289</v>
+        <v>0.02835161425340419</v>
       </c>
       <c r="E9" s="1">
-        <v>0.01658767772511838</v>
+        <v>0.01398601398601396</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -727,10 +727,10 @@
         <v>36</v>
       </c>
       <c r="D10" s="1">
-        <v>0.1228373974204383</v>
+        <v>0.1232223032840157</v>
       </c>
       <c r="E10" s="1">
-        <v>0.005769230769230749</v>
+        <v>0.00630975143403445</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -744,10 +744,10 @@
         <v>37</v>
       </c>
       <c r="D11" s="1">
-        <v>0.2498406361937793</v>
+        <v>0.2481562892321967</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.004131860235336404</v>
+        <v>-0.02020384233787309</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -761,10 +761,10 @@
         <v>38</v>
       </c>
       <c r="D12" s="1">
-        <v>0.104393834649288</v>
+        <v>0.1034869437959043</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.006082493822467283</v>
+        <v>-0.01185695161598777</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -775,7 +775,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>0.002627539175976024</v>
+        <v>-0.007433509139124883</v>
       </c>
     </row>
     <row r="16" spans="1:5">

--- a/WS_holdings.xlsx
+++ b/WS_holdings.xlsx
@@ -134,7 +134,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-04 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-05 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -591,10 +591,10 @@
         <v>28</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03097120733000712</v>
+        <v>0.03102358496500318</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.005754908598510355</v>
+        <v>-0.01702417432754511</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -608,10 +608,10 @@
         <v>29</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02390218175336856</v>
+        <v>0.02396404680865104</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.004864489228630919</v>
+        <v>-0.01582867783985109</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -625,10 +625,10 @@
         <v>30</v>
       </c>
       <c r="D4" s="1">
-        <v>0.05135613448571712</v>
+        <v>0.05148652526780813</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.004913430042115086</v>
+        <v>-0.001175640724194738</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -642,10 +642,10 @@
         <v>31</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1377079921208408</v>
+        <v>0.1378869120879147</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.006143896523847947</v>
+        <v>0.0004880429477793768</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -659,10 +659,10 @@
         <v>32</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03018004003664627</v>
+        <v>0.0304060637897119</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>0.03430656934306575</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -676,10 +676,10 @@
         <v>33</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1210945391904059</v>
+        <v>0.1207202269458563</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.01050160612799589</v>
+        <v>-0.003995505056811233</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -693,10 +693,10 @@
         <v>34</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1015707545174934</v>
+        <v>0.1026314733796508</v>
       </c>
       <c r="E8" s="1">
-        <v>0.002932013927066324</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -710,10 +710,10 @@
         <v>35</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02835161425340419</v>
+        <v>0.02896344032523652</v>
       </c>
       <c r="E9" s="1">
-        <v>0.01398601398601396</v>
+        <v>0.0121212121212122</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -727,10 +727,10 @@
         <v>36</v>
       </c>
       <c r="D10" s="1">
-        <v>0.1232223032840157</v>
+        <v>0.1249284622547748</v>
       </c>
       <c r="E10" s="1">
-        <v>0.00630975143403445</v>
+        <v>0.008170245107353313</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -744,10 +744,10 @@
         <v>37</v>
       </c>
       <c r="D11" s="1">
-        <v>0.2481562892321967</v>
+        <v>0.2449635172335052</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.02020384233787309</v>
+        <v>-0.002117278836417213</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -761,10 +761,10 @@
         <v>38</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1034869437959043</v>
+        <v>0.1030257469418875</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.01185695161598777</v>
+        <v>-0.004838397522740512</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -775,7 +775,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.007433509139124883</v>
+        <v>1.471701436384087E-05</v>
       </c>
     </row>
     <row r="16" spans="1:5">

--- a/WS_holdings.xlsx
+++ b/WS_holdings.xlsx
@@ -134,7 +134,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-05 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-06 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -591,10 +591,10 @@
         <v>28</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03102358496500318</v>
+        <v>0.03049498525115759</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.01702417432754511</v>
+        <v>0.007273986837547541</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -608,10 +608,10 @@
         <v>29</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02396404680865104</v>
+        <v>0.02358438054031062</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.01582867783985109</v>
+        <v>0.007805108798486282</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -625,10 +625,10 @@
         <v>30</v>
       </c>
       <c r="D4" s="1">
-        <v>0.05148652526780813</v>
+        <v>0.05142523878597813</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.001175640724194738</v>
+        <v>0.01341807909604498</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -642,10 +642,10 @@
         <v>31</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1378869120879147</v>
+        <v>0.137952176578786</v>
       </c>
       <c r="E5" s="1">
-        <v>0.0004880429477793768</v>
+        <v>-0.0009756097560975618</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -659,10 +659,10 @@
         <v>32</v>
       </c>
       <c r="D6" s="1">
-        <v>0.0304060637897119</v>
+        <v>0.03144872869417142</v>
       </c>
       <c r="E6" s="1">
-        <v>0.03430656934306575</v>
+        <v>0.003528581510233053</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -676,10 +676,10 @@
         <v>33</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1207202269458563</v>
+        <v>0.1202361191519422</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.003995505056811233</v>
+        <v>0.001378964523003789</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -693,10 +693,10 @@
         <v>34</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1026314733796508</v>
+        <v>0.1026299629730115</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>0.005846884706742106</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -710,10 +710,10 @@
         <v>35</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02896344032523652</v>
+        <v>0.02931408091342891</v>
       </c>
       <c r="E9" s="1">
-        <v>0.0121212121212122</v>
+        <v>0.008465826966756351</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -727,10 +727,10 @@
         <v>36</v>
       </c>
       <c r="D10" s="1">
-        <v>0.1249284622547748</v>
+        <v>0.1259473048439865</v>
       </c>
       <c r="E10" s="1">
-        <v>0.008170245107353313</v>
+        <v>0.01187335092348274</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -744,10 +744,10 @@
         <v>37</v>
       </c>
       <c r="D11" s="1">
-        <v>0.2449635172335052</v>
+        <v>0.2444412637171831</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.002117278836417213</v>
+        <v>0.005350553505535149</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -761,10 +761,10 @@
         <v>38</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1030257469418875</v>
+        <v>0.1025257585500441</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.004838397522740512</v>
+        <v>0.007195643718397537</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -775,7 +775,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>1.471701436384087E-05</v>
+        <v>0.005627394891799531</v>
       </c>
     </row>
     <row r="16" spans="1:5">

--- a/WS_holdings.xlsx
+++ b/WS_holdings.xlsx
@@ -134,7 +134,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-06 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-07 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -591,10 +591,10 @@
         <v>28</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03049498525115759</v>
+        <v>0.03054491706223923</v>
       </c>
       <c r="E2" s="1">
-        <v>0.007273986837547541</v>
+        <v>0.01272352132049503</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -608,10 +608,10 @@
         <v>29</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02358438054031062</v>
+        <v>0.02363545316794995</v>
       </c>
       <c r="E3" s="1">
-        <v>0.007805108798486282</v>
+        <v>0.003285613705702906</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -625,10 +625,10 @@
         <v>30</v>
       </c>
       <c r="D4" s="1">
-        <v>0.05142523878597813</v>
+        <v>0.05182363465063392</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01341807909604498</v>
+        <v>0.001393728222996771</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -642,10 +642,10 @@
         <v>31</v>
       </c>
       <c r="D5" s="1">
-        <v>0.137952176578786</v>
+        <v>0.1370463750187209</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.0009756097560975618</v>
+        <v>0.00732421875</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -659,10 +659,10 @@
         <v>32</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03144872869417142</v>
+        <v>0.03138309303930376</v>
       </c>
       <c r="E6" s="1">
-        <v>0.003528581510233053</v>
+        <v>0.02039381153305198</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -676,10 +676,10 @@
         <v>33</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1202361191519422</v>
+        <v>0.119728162842651</v>
       </c>
       <c r="E7" s="1">
-        <v>0.001378964523003789</v>
+        <v>0.009889834752128124</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -693,10 +693,10 @@
         <v>34</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1026299629730115</v>
+        <v>0.1026523631499508</v>
       </c>
       <c r="E8" s="1">
-        <v>0.005846884706742106</v>
+        <v>0.01089918256130784</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -710,10 +710,10 @@
         <v>35</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02931408091342891</v>
+        <v>0.02939682132795541</v>
       </c>
       <c r="E9" s="1">
-        <v>0.008465826966756351</v>
+        <v>0.008804258804258724</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -727,10 +727,10 @@
         <v>36</v>
       </c>
       <c r="D10" s="1">
-        <v>0.1259473048439865</v>
+        <v>0.1267295640906623</v>
       </c>
       <c r="E10" s="1">
-        <v>0.01187335092348274</v>
+        <v>0.005587632706276713</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -744,10 +744,10 @@
         <v>37</v>
       </c>
       <c r="D11" s="1">
-        <v>0.2444412637171831</v>
+        <v>0.2443739709418953</v>
       </c>
       <c r="E11" s="1">
-        <v>0.005350553505535149</v>
+        <v>0.01000183519911912</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -761,10 +761,10 @@
         <v>38</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1025257585500441</v>
+        <v>0.1026856447080375</v>
       </c>
       <c r="E12" s="1">
-        <v>0.007195643718397537</v>
+        <v>0.01023363583703429</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -775,7 +775,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>0.005627394891799531</v>
+        <v>0.008947192198991649</v>
       </c>
     </row>
     <row r="16" spans="1:5">

--- a/WS_holdings.xlsx
+++ b/WS_holdings.xlsx
@@ -134,7 +134,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-07 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-10 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -591,10 +591,10 @@
         <v>28</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03054491706223923</v>
+        <v>0.03065924183632839</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01272352132049503</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -608,10 +608,10 @@
         <v>29</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02363545316794995</v>
+        <v>0.02350282583683746</v>
       </c>
       <c r="E3" s="1">
-        <v>0.003285613705702906</v>
+        <v>0.008654970760233915</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -625,10 +625,10 @@
         <v>30</v>
       </c>
       <c r="D4" s="1">
-        <v>0.05182363465063392</v>
+        <v>0.05143565799490278</v>
       </c>
       <c r="E4" s="1">
-        <v>0.001393728222996771</v>
+        <v>0.006958942240779198</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -642,10 +642,10 @@
         <v>31</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1370463750187209</v>
+        <v>0.136825924801251</v>
       </c>
       <c r="E5" s="1">
-        <v>0.00732421875</v>
+        <v>-0.006139925674584101</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -659,10 +659,10 @@
         <v>32</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03138309303930376</v>
+        <v>0.0317391377583176</v>
       </c>
       <c r="E6" s="1">
-        <v>0.02039381153305198</v>
+        <v>-0.001378359751895153</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -676,10 +676,10 @@
         <v>33</v>
       </c>
       <c r="D7" s="1">
-        <v>0.119728162842651</v>
+        <v>0.1198400228705861</v>
       </c>
       <c r="E7" s="1">
-        <v>0.009889834752128124</v>
+        <v>-0.0174786165860914</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -693,10 +693,10 @@
         <v>34</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1026523631499508</v>
+        <v>0.1028509626654526</v>
       </c>
       <c r="E8" s="1">
-        <v>0.01089918256130784</v>
+        <v>-0.001976639712488626</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -710,10 +710,10 @@
         <v>35</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02939682132795541</v>
+        <v>0.02939265680130898</v>
       </c>
       <c r="E9" s="1">
-        <v>0.008804258804258724</v>
+        <v>-0.003653338745686963</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -727,10 +727,10 @@
         <v>36</v>
       </c>
       <c r="D10" s="1">
-        <v>0.1267295640906623</v>
+        <v>0.1263075841165464</v>
       </c>
       <c r="E10" s="1">
-        <v>0.005587632706276713</v>
+        <v>-0.003704389701796651</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -744,10 +744,10 @@
         <v>37</v>
       </c>
       <c r="D11" s="1">
-        <v>0.2443739709418953</v>
+        <v>0.2446294127527848</v>
       </c>
       <c r="E11" s="1">
-        <v>0.01000183519911912</v>
+        <v>-0.02625601889706541</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -761,10 +761,10 @@
         <v>38</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1026856447080375</v>
+        <v>0.1028165725656839</v>
       </c>
       <c r="E12" s="1">
-        <v>0.01023363583703429</v>
+        <v>-0.01853975535168184</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -772,10 +772,10 @@
         <v>16</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.008947192198991649</v>
+        <v>-0.01152489445514615</v>
       </c>
     </row>
     <row r="16" spans="1:5">

--- a/WS_holdings.xlsx
+++ b/WS_holdings.xlsx
@@ -134,7 +134,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-10 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-11 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -591,10 +591,10 @@
         <v>28</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03065924183632839</v>
+        <v>0.03101670610048274</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>-0.01256366723259761</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -608,10 +608,10 @@
         <v>29</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02350282583683746</v>
+        <v>0.02398263949618754</v>
       </c>
       <c r="E3" s="1">
-        <v>0.008654970760233915</v>
+        <v>-0.01205936920222628</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -625,10 +625,10 @@
         <v>30</v>
       </c>
       <c r="D4" s="1">
-        <v>0.05143565799490278</v>
+        <v>0.05239747109205833</v>
       </c>
       <c r="E4" s="1">
-        <v>0.006958942240779198</v>
+        <v>-0.009675190048375804</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -642,10 +642,10 @@
         <v>31</v>
       </c>
       <c r="D5" s="1">
-        <v>0.136825924801251</v>
+        <v>0.137571318720929</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.006139925674584101</v>
+        <v>-0.007478458787189113</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -659,10 +659,10 @@
         <v>32</v>
       </c>
       <c r="D6" s="1">
-        <v>0.0317391377583176</v>
+        <v>0.03206493479752429</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.001378359751895153</v>
+        <v>-0.02208419599723954</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -676,10 +676,10 @@
         <v>33</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1198400228705861</v>
+        <v>0.1191182098554325</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.0174786165860914</v>
+        <v>-0.01160736815543784</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -693,10 +693,10 @@
         <v>34</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1028509626654526</v>
+        <v>0.1038444598072102</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.001976639712488626</v>
+        <v>-0.01296362981634858</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -710,10 +710,10 @@
         <v>35</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02939265680130898</v>
+        <v>0.02962672029381645</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.003653338745686963</v>
+        <v>0.004277856997351615</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -727,10 +727,10 @@
         <v>36</v>
       </c>
       <c r="D10" s="1">
-        <v>0.1263075841165464</v>
+        <v>0.1273068900742044</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.003704389701796651</v>
+        <v>-0.01635991820040905</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -744,10 +744,10 @@
         <v>37</v>
       </c>
       <c r="D11" s="1">
-        <v>0.2446294127527848</v>
+        <v>0.2409837303261863</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.02625601889706541</v>
+        <v>-0.0006531069229332997</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -761,10 +761,10 @@
         <v>38</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1028165725656839</v>
+        <v>0.1020869194359682</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.01853975535168184</v>
+        <v>-0.00292112950340806</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -772,10 +772,10 @@
         <v>16</v>
       </c>
       <c r="D13" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.01152489445514615</v>
+        <v>-0.008063243052496727</v>
       </c>
     </row>
     <row r="16" spans="1:5">

--- a/WS_holdings.xlsx
+++ b/WS_holdings.xlsx
@@ -134,7 +134,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-11 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-12 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -591,10 +591,10 @@
         <v>28</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03101670610048274</v>
+        <v>0.03087598308246368</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.01256366723259761</v>
+        <v>-0.02579092159559837</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -608,10 +608,10 @@
         <v>29</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02398263949618754</v>
+        <v>0.02388602279944855</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.01205936920222628</v>
+        <v>-0.02441314553990603</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -625,10 +625,10 @@
         <v>30</v>
       </c>
       <c r="D4" s="1">
-        <v>0.05239747109205833</v>
+        <v>0.05231232257273295</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.009675190048375804</v>
+        <v>-0.01349150965340795</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -642,10 +642,10 @@
         <v>31</v>
       </c>
       <c r="D5" s="1">
-        <v>0.137571318720929</v>
+        <v>0.1376524222207058</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.007478458787189113</v>
+        <v>-0.01113841113841108</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -659,10 +659,10 @@
         <v>32</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03206493479752429</v>
+        <v>0.03161169930763699</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.02208419599723954</v>
+        <v>0.002822865208186309</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -676,10 +676,10 @@
         <v>33</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1191182098554325</v>
+        <v>0.1186926082887911</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.01160736815543784</v>
+        <v>-0.03523104416645395</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -693,10 +693,10 @@
         <v>34</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1038444598072102</v>
+        <v>0.1033314452296432</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.01296362981634858</v>
+        <v>-0.02681503101057992</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -710,10 +710,10 @@
         <v>35</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02962672029381645</v>
+        <v>0.02999531871174382</v>
       </c>
       <c r="E9" s="1">
-        <v>0.004277856997351615</v>
+        <v>-0.02819472616632857</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -727,10 +727,10 @@
         <v>36</v>
       </c>
       <c r="D10" s="1">
-        <v>0.1273068900742044</v>
+        <v>0.1262420803435044</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.01635991820040905</v>
+        <v>-0.01530901530901529</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -744,10 +744,10 @@
         <v>37</v>
       </c>
       <c r="D11" s="1">
-        <v>0.2409837303261863</v>
+        <v>0.2427839683294863</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.0006531069229332997</v>
+        <v>-0.02940901876575497</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -761,10 +761,10 @@
         <v>38</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1020869194359682</v>
+        <v>0.1026161291138431</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.00292112950340806</v>
+        <v>-0.02246093750000011</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -772,10 +772,10 @@
         <v>16</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.008063243052496727</v>
+        <v>-0.02270496383573628</v>
       </c>
     </row>
     <row r="16" spans="1:5">

--- a/WS_holdings.xlsx
+++ b/WS_holdings.xlsx
@@ -134,7 +134,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-12 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-13 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -591,10 +591,10 @@
         <v>28</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03087598308246368</v>
+        <v>0.03077848746848751</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.02579092159559837</v>
+        <v>0.01411930815390061</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -608,10 +608,10 @@
         <v>29</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02388602279944855</v>
+        <v>0.02384427320938459</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.02441314553990603</v>
+        <v>0.02045235803657341</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -625,10 +625,10 @@
         <v>30</v>
       </c>
       <c r="D4" s="1">
-        <v>0.05231232257273295</v>
+        <v>0.05280549727367765</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.01349150965340795</v>
+        <v>0.01461919358641839</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -642,10 +642,10 @@
         <v>31</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1376524222207058</v>
+        <v>0.1392815760960588</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.01113841113841108</v>
+        <v>0.007619678648335126</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -659,10 +659,10 @@
         <v>32</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03161169930763699</v>
+        <v>0.03243742544544743</v>
       </c>
       <c r="E6" s="1">
-        <v>0.002822865208186309</v>
+        <v>-0.01407459535538358</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -676,10 +676,10 @@
         <v>33</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1186926082887911</v>
+        <v>0.1171713142157923</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.03523104416645395</v>
+        <v>0.008864779042074611</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -693,10 +693,10 @@
         <v>34</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1033314452296432</v>
+        <v>0.1028968792434755</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.02681503101057992</v>
+        <v>0.01893158388003724</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -710,10 +710,10 @@
         <v>35</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02999531871174382</v>
+        <v>0.02982682591820203</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.02819472616632857</v>
+        <v>0.01607180129409302</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -727,10 +727,10 @@
         <v>36</v>
       </c>
       <c r="D10" s="1">
-        <v>0.1262420803435044</v>
+        <v>0.1271974519493925</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.01530901530901529</v>
+        <v>0.02092130518234159</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -744,10 +744,10 @@
         <v>37</v>
       </c>
       <c r="D11" s="1">
-        <v>0.2427839683294863</v>
+        <v>0.241118517263453</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.02940901876575497</v>
+        <v>0.01067718353212777</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -761,10 +761,10 @@
         <v>38</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1026161291138431</v>
+        <v>0.1026417519166288</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.02246093750000011</v>
+        <v>0.00707292707292706</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -772,10 +772,10 @@
         <v>16</v>
       </c>
       <c r="D13" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.02270496383573628</v>
+        <v>0.01172660409170523</v>
       </c>
     </row>
     <row r="16" spans="1:5">

--- a/WS_holdings.xlsx
+++ b/WS_holdings.xlsx
@@ -134,7 +134,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-13 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-14 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -591,10 +591,10 @@
         <v>28</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03077848746848751</v>
+        <v>0.03085127769827512</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01411930815390061</v>
+        <v>0.0114862513052556</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -608,10 +608,10 @@
         <v>29</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02384427320938459</v>
+        <v>0.02404992092110617</v>
       </c>
       <c r="E3" s="1">
-        <v>0.02045235803657341</v>
+        <v>0.005187455788729256</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -625,10 +625,10 @@
         <v>30</v>
       </c>
       <c r="D4" s="1">
-        <v>0.05280549727367765</v>
+        <v>0.05295647148554398</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01461919358641839</v>
+        <v>0.005345108064141124</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -642,10 +642,10 @@
         <v>31</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1392815760960588</v>
+        <v>0.1387161871398445</v>
       </c>
       <c r="E5" s="1">
-        <v>0.007619678648335126</v>
+        <v>0.008055235903337232</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -659,10 +659,10 @@
         <v>32</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03243742544544743</v>
+        <v>0.03161020148980239</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.01407459535538358</v>
+        <v>0.03354746609564607</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -676,10 +676,10 @@
         <v>33</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1171713142157923</v>
+        <v>0.1168398770461412</v>
       </c>
       <c r="E7" s="1">
-        <v>0.008864779042074611</v>
+        <v>0.02124590163934426</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -693,10 +693,10 @@
         <v>34</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1028968792434755</v>
+        <v>0.1036296561935264</v>
       </c>
       <c r="E8" s="1">
-        <v>0.01893158388003724</v>
+        <v>0.01490066225165587</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -710,10 +710,10 @@
         <v>35</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02982682591820203</v>
+        <v>0.02995492716611992</v>
       </c>
       <c r="E9" s="1">
-        <v>0.01607180129409302</v>
+        <v>0.01109285127362369</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -727,10 +727,10 @@
         <v>36</v>
       </c>
       <c r="D10" s="1">
-        <v>0.1271974519493925</v>
+        <v>0.1283534387005912</v>
       </c>
       <c r="E10" s="1">
-        <v>0.02092130518234159</v>
+        <v>0.0150404211317916</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -744,10 +744,10 @@
         <v>37</v>
       </c>
       <c r="D11" s="1">
-        <v>0.241118517263453</v>
+        <v>0.2408684153799128</v>
       </c>
       <c r="E11" s="1">
-        <v>0.01067718353212777</v>
+        <v>0.02360331207766264</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -761,10 +761,10 @@
         <v>38</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1026417519166288</v>
+        <v>0.1021696267791364</v>
       </c>
       <c r="E12" s="1">
-        <v>0.00707292707292706</v>
+        <v>0.01916514562336324</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -775,7 +775,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>0.01172660409170523</v>
+        <v>0.01687269778537348</v>
       </c>
     </row>
     <row r="16" spans="1:5">

--- a/WS_holdings.xlsx
+++ b/WS_holdings.xlsx
@@ -134,7 +134,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-14 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-17 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -591,10 +591,10 @@
         <v>28</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03085127769827512</v>
+        <v>0.03068785630194209</v>
       </c>
       <c r="E2" s="1">
-        <v>0.0114862513052556</v>
+        <v>0.0006882312456986117</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -608,10 +608,10 @@
         <v>29</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02404992092110617</v>
+        <v>0.02377355481689732</v>
       </c>
       <c r="E3" s="1">
-        <v>0.005187455788729256</v>
+        <v>-0.008913910391742941</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -625,10 +625,10 @@
         <v>30</v>
       </c>
       <c r="D4" s="1">
-        <v>0.05295647148554398</v>
+        <v>0.05235614021723576</v>
       </c>
       <c r="E4" s="1">
-        <v>0.005345108064141124</v>
+        <v>-0.001618122977346093</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -642,10 +642,10 @@
         <v>31</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1387161871398445</v>
+        <v>0.1375133574295073</v>
       </c>
       <c r="E5" s="1">
-        <v>0.008055235903337232</v>
+        <v>-0.002120026092628846</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -659,10 +659,10 @@
         <v>32</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03161020148980239</v>
+        <v>0.03212854836570085</v>
       </c>
       <c r="E6" s="1">
-        <v>0.03354746609564607</v>
+        <v>0.024171270718232</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -676,10 +676,10 @@
         <v>33</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1168398770461412</v>
+        <v>0.1173423633472372</v>
       </c>
       <c r="E7" s="1">
-        <v>0.02124590163934426</v>
+        <v>-0.0008989341209707513</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -693,10 +693,10 @@
         <v>34</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1036296561935264</v>
+        <v>0.1034286857428439</v>
       </c>
       <c r="E8" s="1">
-        <v>0.01490066225165587</v>
+        <v>-0.003081384810585508</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -710,10 +710,10 @@
         <v>35</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02995492716611992</v>
+        <v>0.02978466506579223</v>
       </c>
       <c r="E9" s="1">
-        <v>0.01109285127362369</v>
+        <v>0.009752133279155029</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -727,10 +727,10 @@
         <v>36</v>
       </c>
       <c r="D10" s="1">
-        <v>0.1283534387005912</v>
+        <v>0.1281221619541014</v>
       </c>
       <c r="E10" s="1">
-        <v>0.0150404211317916</v>
+        <v>0.00166697536580851</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -744,10 +744,10 @@
         <v>37</v>
       </c>
       <c r="D11" s="1">
-        <v>0.2408684153799128</v>
+        <v>0.2424627077654275</v>
       </c>
       <c r="E11" s="1">
-        <v>0.02360331207766264</v>
+        <v>-0.006880520688052005</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -761,10 +761,10 @@
         <v>38</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1021696267791364</v>
+        <v>0.1023999589933143</v>
       </c>
       <c r="E12" s="1">
-        <v>0.01916514562336324</v>
+        <v>-0.008759976640062339</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -775,7 +775,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>0.01687269778537348</v>
+        <v>-0.002275894784628307</v>
       </c>
     </row>
     <row r="16" spans="1:5">

--- a/WS_holdings.xlsx
+++ b/WS_holdings.xlsx
@@ -134,7 +134,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-17 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-18 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -591,10 +591,10 @@
         <v>28</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03068785630194209</v>
+        <v>0.03077902646933008</v>
       </c>
       <c r="E2" s="1">
-        <v>0.0006882312456986117</v>
+        <v>0.0006877579092159358</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -608,10 +608,10 @@
         <v>29</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02377355481689732</v>
+        <v>0.02361538561251882</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.008913910391742941</v>
+        <v>-0.0004733727810650734</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -625,10 +625,10 @@
         <v>30</v>
       </c>
       <c r="D4" s="1">
-        <v>0.05235614021723576</v>
+        <v>0.05239065716715507</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.001618122977346093</v>
+        <v>-0.003009956008335313</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -642,10 +642,10 @@
         <v>31</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1375133574295073</v>
+        <v>0.1375348403495279</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.002120026092628846</v>
+        <v>0.001470828566759286</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -659,10 +659,10 @@
         <v>32</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03212854836570085</v>
+        <v>0.03298019566133367</v>
       </c>
       <c r="E6" s="1">
-        <v>0.024171270718232</v>
+        <v>-0.02292650033715438</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -676,10 +676,10 @@
         <v>33</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1173423633472372</v>
+        <v>0.1175043077341324</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.0008989341209707513</v>
+        <v>-0.007326478149100146</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -693,10 +693,10 @@
         <v>34</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1034286857428439</v>
+        <v>0.1033451849290135</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.003081384810585508</v>
+        <v>-0.01454545454545453</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -710,10 +710,10 @@
         <v>35</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02978466506579223</v>
+        <v>0.03014373305403574</v>
       </c>
       <c r="E9" s="1">
-        <v>0.009752133279155029</v>
+        <v>-0.01227364185110669</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -727,10 +727,10 @@
         <v>36</v>
       </c>
       <c r="D10" s="1">
-        <v>0.1281221619541014</v>
+        <v>0.1286284833362727</v>
       </c>
       <c r="E10" s="1">
-        <v>0.00166697536580851</v>
+        <v>-0.01312869822485208</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -744,10 +744,10 @@
         <v>37</v>
       </c>
       <c r="D11" s="1">
-        <v>0.2424627077654275</v>
+        <v>0.2413437109816924</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.006880520688052005</v>
+        <v>-0.006553693474393829</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -761,10 +761,10 @@
         <v>38</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1023999589933143</v>
+        <v>0.1017344747049875</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.008759976640062339</v>
+        <v>-0.009033778476040699</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -775,7 +775,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.002275894784628307</v>
+        <v>-0.007625066998957042</v>
       </c>
     </row>
     <row r="16" spans="1:5">

--- a/WS_holdings.xlsx
+++ b/WS_holdings.xlsx
@@ -134,7 +134,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-18 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-19 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -591,10 +591,10 @@
         <v>28</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03077902646933008</v>
+        <v>0.03103685307233568</v>
       </c>
       <c r="E2" s="1">
-        <v>0.0006877579092159358</v>
+        <v>-0.004123711340206171</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -608,10 +608,10 @@
         <v>29</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02361538561251882</v>
+        <v>0.02378557332194393</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.0004733727810650734</v>
+        <v>-0.001183992422448488</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -625,10 +625,10 @@
         <v>30</v>
       </c>
       <c r="D4" s="1">
-        <v>0.05239065716715507</v>
+        <v>0.05263430368588246</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.003009956008335313</v>
+        <v>-0.003715745471435161</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -642,10 +642,10 @@
         <v>31</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1375348403495279</v>
+        <v>0.1387954551664335</v>
       </c>
       <c r="E5" s="1">
-        <v>0.001470828566759286</v>
+        <v>-0.002937336814621494</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -659,10 +659,10 @@
         <v>32</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03298019566133367</v>
+        <v>0.03247167388331323</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.02292650033715438</v>
+        <v>-0.02484472049689446</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -676,10 +676,10 @@
         <v>33</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1175043077341324</v>
+        <v>0.1175396627949394</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.007326478149100146</v>
+        <v>-0.01048815227243305</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -693,10 +693,10 @@
         <v>34</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1033451849290135</v>
+        <v>0.102624500934497</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.01454545454545453</v>
+        <v>-0.007195571955719626</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -710,10 +710,10 @@
         <v>35</v>
       </c>
       <c r="D9" s="1">
-        <v>0.03014373305403574</v>
+        <v>0.03000253097933082</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.01227364185110669</v>
+        <v>-0.01588918313302101</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -727,10 +727,10 @@
         <v>36</v>
       </c>
       <c r="D10" s="1">
-        <v>0.1286284833362727</v>
+        <v>0.1279151201568057</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.01312869822485208</v>
+        <v>-0.005433764287052667</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -744,10 +744,10 @@
         <v>37</v>
       </c>
       <c r="D11" s="1">
-        <v>0.2413437109816924</v>
+        <v>0.2416042670010628</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.006553693474393829</v>
+        <v>0.002921496560173376</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -761,10 +761,10 @@
         <v>38</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1017344747049875</v>
+        <v>0.1015900590034557</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.009033778476040699</v>
+        <v>-0.000792707094728673</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -775,7 +775,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.007625066998957042</v>
+        <v>-0.004083840607741807</v>
       </c>
     </row>
     <row r="16" spans="1:5">

--- a/WS_holdings.xlsx
+++ b/WS_holdings.xlsx
@@ -134,7 +134,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-19 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-20 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -591,10 +591,10 @@
         <v>28</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03103685307233568</v>
+        <v>0.03103561053594975</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.004123711340206171</v>
+        <v>0.01138716356107627</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -608,10 +608,10 @@
         <v>29</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02378557332194393</v>
+        <v>0.02385483070971028</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.001183992422448488</v>
+        <v>0.006638217164532945</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -625,10 +625,10 @@
         <v>30</v>
       </c>
       <c r="D4" s="1">
-        <v>0.05263430368588246</v>
+        <v>0.05265375756360795</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.003715745471435161</v>
+        <v>0.007226107226107281</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -642,10 +642,10 @@
         <v>31</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1387954551664335</v>
+        <v>0.1389552372066338</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.002937336814621494</v>
+        <v>0.01309328968903434</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -659,10 +659,10 @@
         <v>32</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03247167388331323</v>
+        <v>0.03179476899033249</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.02484472049689446</v>
+        <v>-0.0007077140835102247</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -676,10 +676,10 @@
         <v>33</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1175396627949394</v>
+        <v>0.1167838154011579</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.01048815227243305</v>
+        <v>0.007851347814707976</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -693,10 +693,10 @@
         <v>34</v>
       </c>
       <c r="D8" s="1">
-        <v>0.102624500934497</v>
+        <v>0.1023038515770016</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.007195571955719626</v>
+        <v>0.004088459394164579</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -710,10 +710,10 @@
         <v>35</v>
       </c>
       <c r="D9" s="1">
-        <v>0.03000253097933082</v>
+        <v>0.02964688843703846</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.01588918313302101</v>
+        <v>0.0006209894431794538</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -727,10 +727,10 @@
         <v>36</v>
       </c>
       <c r="D10" s="1">
-        <v>0.1279151201568057</v>
+        <v>0.1277417364356831</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.005433764287052667</v>
+        <v>0.001130369253956376</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -744,10 +744,10 @@
         <v>37</v>
       </c>
       <c r="D11" s="1">
-        <v>0.2416042670010628</v>
+        <v>0.24330372667504</v>
       </c>
       <c r="E11" s="1">
-        <v>0.002921496560173376</v>
+        <v>0.02020296936666033</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -761,10 +761,10 @@
         <v>38</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1015900590034557</v>
+        <v>0.1019257764678447</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.000792707094728673</v>
+        <v>0.01864339547798499</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -775,7 +775,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.004083840607741807</v>
+        <v>0.01100280391667519</v>
       </c>
     </row>
     <row r="16" spans="1:5">

--- a/WS_holdings.xlsx
+++ b/WS_holdings.xlsx
@@ -134,7 +134,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-20 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-21 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -591,10 +591,10 @@
         <v>28</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03103561053594975</v>
+        <v>0.03104740954994176</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01138716356107627</v>
+        <v>-0.0006823609689524668</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -608,10 +608,10 @@
         <v>29</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02385483070971028</v>
+        <v>0.0237518473374715</v>
       </c>
       <c r="E3" s="1">
-        <v>0.006638217164532945</v>
+        <v>0.005887894488930678</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -625,10 +625,10 @@
         <v>30</v>
       </c>
       <c r="D4" s="1">
-        <v>0.05265375756360795</v>
+        <v>0.05245706446724258</v>
       </c>
       <c r="E4" s="1">
-        <v>0.007226107226107281</v>
+        <v>0.0002314279102058059</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -642,10 +642,10 @@
         <v>31</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1389552372066338</v>
+        <v>0.1392425597988659</v>
       </c>
       <c r="E5" s="1">
-        <v>0.01309328968903434</v>
+        <v>-0.0003231017770598532</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -659,10 +659,10 @@
         <v>32</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03179476899033249</v>
+        <v>0.03142648790037845</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.0007077140835102247</v>
+        <v>0.002832861189801639</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -676,10 +676,10 @@
         <v>33</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1167838154011579</v>
+        <v>0.1164197817246625</v>
       </c>
       <c r="E7" s="1">
-        <v>0.007851347814707976</v>
+        <v>-0.002986237340950271</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -693,10 +693,10 @@
         <v>34</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1023038515770016</v>
+        <v>0.1016041857867161</v>
       </c>
       <c r="E8" s="1">
-        <v>0.004088459394164579</v>
+        <v>0.004812141402924297</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -710,10 +710,10 @@
         <v>35</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02964688843703846</v>
+        <v>0.02934244962215351</v>
       </c>
       <c r="E9" s="1">
-        <v>0.0006209894431794538</v>
+        <v>0.002689284236656819</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -727,10 +727,10 @@
         <v>36</v>
       </c>
       <c r="D10" s="1">
-        <v>0.1277417364356831</v>
+        <v>0.1264943393545099</v>
       </c>
       <c r="E10" s="1">
-        <v>0.001130369253956376</v>
+        <v>0.008280015054572765</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -744,10 +744,10 @@
         <v>37</v>
       </c>
       <c r="D11" s="1">
-        <v>0.24330372667504</v>
+        <v>0.2455178001982157</v>
       </c>
       <c r="E11" s="1">
-        <v>0.02020296936666033</v>
+        <v>-0.005065856129685908</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -761,10 +761,10 @@
         <v>38</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1019257764678447</v>
+        <v>0.1026960742598421</v>
       </c>
       <c r="E12" s="1">
-        <v>0.01864339547798499</v>
+        <v>-0.002725856697819329</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -775,7 +775,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>0.01100280391667519</v>
+        <v>-8.12905850386958E-05</v>
       </c>
     </row>
     <row r="16" spans="1:5">

--- a/WS_holdings.xlsx
+++ b/WS_holdings.xlsx
@@ -134,7 +134,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-21 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-24 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -591,10 +591,10 @@
         <v>28</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03104740954994176</v>
+        <v>0.03102874635442196</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.0006823609689524668</v>
+        <v>0.01160805735745973</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -608,10 +608,10 @@
         <v>29</v>
       </c>
       <c r="D3" s="1">
-        <v>0.0237518473374715</v>
+        <v>0.0238936380363264</v>
       </c>
       <c r="E3" s="1">
-        <v>0.005887894488930678</v>
+        <v>-0.001404823226410779</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -625,10 +625,10 @@
         <v>30</v>
       </c>
       <c r="D4" s="1">
-        <v>0.05245706446724258</v>
+        <v>0.05247347009513081</v>
       </c>
       <c r="E4" s="1">
-        <v>0.0002314279102058059</v>
+        <v>0.002545118000925495</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -642,10 +642,10 @@
         <v>31</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1392425597988659</v>
+        <v>0.1392088866521911</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.0003231017770598532</v>
+        <v>0.001292824822236582</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -659,10 +659,10 @@
         <v>32</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03142648790037845</v>
+        <v>0.0315180769011938</v>
       </c>
       <c r="E6" s="1">
-        <v>0.002832861189801639</v>
+        <v>0.008474576271186196</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -676,10 +676,10 @@
         <v>33</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1164197817246625</v>
+        <v>0.1160815609632539</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.002986237340950271</v>
+        <v>0.008985544992837768</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -693,10 +693,10 @@
         <v>34</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1016041857867161</v>
+        <v>0.1021014193799655</v>
       </c>
       <c r="E8" s="1">
-        <v>0.004812141402924297</v>
+        <v>0.005894271504881088</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -710,10 +710,10 @@
         <v>35</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02934244962215351</v>
+        <v>0.02942375168337564</v>
       </c>
       <c r="E9" s="1">
-        <v>0.002689284236656819</v>
+        <v>0.008046214153084597</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -727,10 +727,10 @@
         <v>36</v>
       </c>
       <c r="D10" s="1">
-        <v>0.1264943393545099</v>
+        <v>0.1275520831721475</v>
       </c>
       <c r="E10" s="1">
-        <v>0.008280015054572765</v>
+        <v>0.003359462486002274</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -744,10 +744,10 @@
         <v>37</v>
       </c>
       <c r="D11" s="1">
-        <v>0.2455178001982157</v>
+        <v>0.2442939011392796</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.005065856129685908</v>
+        <v>0.0177744862062581</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -761,10 +761,10 @@
         <v>38</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1026960742598421</v>
+        <v>0.1024244656227139</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.002725856697819329</v>
+        <v>0.01893791487700125</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -775,7 +775,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>-8.12905850386958E-05</v>
+        <v>0.00949927356255742</v>
       </c>
     </row>
     <row r="16" spans="1:5">

--- a/WS_holdings.xlsx
+++ b/WS_holdings.xlsx
@@ -134,7 +134,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-24 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-25 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -591,10 +591,10 @@
         <v>28</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03102874635442196</v>
+        <v>0.0310935635555849</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01160805735745973</v>
+        <v>0.0003374957813029322</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -608,10 +608,10 @@
         <v>29</v>
       </c>
       <c r="D3" s="1">
-        <v>0.0238936380363264</v>
+        <v>0.02363555113263877</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.001404823226410779</v>
+        <v>-0.01148886283704587</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -625,10 +625,10 @@
         <v>30</v>
       </c>
       <c r="D4" s="1">
-        <v>0.05247347009513081</v>
+        <v>0.0521119951704264</v>
       </c>
       <c r="E4" s="1">
-        <v>0.002545118000925495</v>
+        <v>0.001153934918070698</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -642,10 +642,10 @@
         <v>31</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1392088866521911</v>
+        <v>0.1380772260136681</v>
       </c>
       <c r="E5" s="1">
-        <v>0.001292824822236582</v>
+        <v>-0.002259522272433867</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -659,10 +659,10 @@
         <v>32</v>
       </c>
       <c r="D6" s="1">
-        <v>0.0315180769011938</v>
+        <v>0.03148608431944987</v>
       </c>
       <c r="E6" s="1">
-        <v>0.008474576271186196</v>
+        <v>-0.02100840336134435</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -676,10 +676,10 @@
         <v>33</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1160815609632539</v>
+        <v>0.1160224877020379</v>
       </c>
       <c r="E7" s="1">
-        <v>0.008985544992837768</v>
+        <v>0.00206504904491478</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -693,10 +693,10 @@
         <v>34</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1021014193799655</v>
+        <v>0.1017368071047555</v>
       </c>
       <c r="E8" s="1">
-        <v>0.005894271504881088</v>
+        <v>-0.004028566196667138</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -710,10 +710,10 @@
         <v>35</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02942375168337564</v>
+        <v>0.02938139953873799</v>
       </c>
       <c r="E9" s="1">
-        <v>0.008046214153084597</v>
+        <v>-0.01002865329512903</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -727,10 +727,10 @@
         <v>36</v>
       </c>
       <c r="D10" s="1">
-        <v>0.1275520831721475</v>
+        <v>0.1267763067911162</v>
       </c>
       <c r="E10" s="1">
-        <v>0.003359462486002274</v>
+        <v>-0.01041666666666663</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -744,10 +744,10 @@
         <v>37</v>
       </c>
       <c r="D11" s="1">
-        <v>0.2442939011392796</v>
+        <v>0.2462964622430162</v>
       </c>
       <c r="E11" s="1">
-        <v>0.0177744862062581</v>
+        <v>0.0001819174094961351</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -761,10 +761,10 @@
         <v>38</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1024244656227139</v>
+        <v>0.1033821164285681</v>
       </c>
       <c r="E12" s="1">
-        <v>0.01893791487700125</v>
+        <v>-0.00134125311362332</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -772,10 +772,10 @@
         <v>16</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.00949927356255742</v>
+        <v>-0.003053738438972498</v>
       </c>
     </row>
     <row r="16" spans="1:5">

--- a/WS_holdings.xlsx
+++ b/WS_holdings.xlsx
@@ -134,7 +134,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-25 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-26 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -591,10 +591,10 @@
         <v>28</v>
       </c>
       <c r="D2" s="1">
-        <v>0.0310935635555849</v>
+        <v>0.03119933210182017</v>
       </c>
       <c r="E2" s="1">
-        <v>0.0003374957813029322</v>
+        <v>0.004048582995951566</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -608,10 +608,10 @@
         <v>29</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02363555113263877</v>
+        <v>0.02343557163353451</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.01148886283704587</v>
+        <v>0.0007115749525616888</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -625,10 +625,10 @@
         <v>30</v>
       </c>
       <c r="D4" s="1">
-        <v>0.0521119951704264</v>
+        <v>0.05233193706911774</v>
       </c>
       <c r="E4" s="1">
-        <v>0.001153934918070698</v>
+        <v>-0.001613646841862715</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -642,10 +642,10 @@
         <v>31</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1380772260136681</v>
+        <v>0.138187225087198</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.002259522272433867</v>
+        <v>-0.003720478809446703</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -659,10 +659,10 @@
         <v>32</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03148608431944987</v>
+        <v>0.03091903059201217</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.02100840336134435</v>
+        <v>0.01144492131616603</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -676,10 +676,10 @@
         <v>33</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1160224877020379</v>
+        <v>0.1166182013134905</v>
       </c>
       <c r="E7" s="1">
-        <v>0.00206504904491478</v>
+        <v>0.01300875837197335</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -693,10 +693,10 @@
         <v>34</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1017368071047555</v>
+        <v>0.1016373274563844</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.004028566196667138</v>
+        <v>0.004228718514432517</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -710,10 +710,10 @@
         <v>35</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02938139953873799</v>
+        <v>0.02917583905063652</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.01002865329512903</v>
+        <v>0.002480876576390401</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -727,10 +727,10 @@
         <v>36</v>
       </c>
       <c r="D10" s="1">
-        <v>0.1267763067911162</v>
+        <v>0.1258400027154948</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.01041666666666663</v>
+        <v>0.005075187969924899</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -744,10 +744,10 @@
         <v>37</v>
       </c>
       <c r="D11" s="1">
-        <v>0.2462964622430162</v>
+        <v>0.2470958339034965</v>
       </c>
       <c r="E11" s="1">
-        <v>0.0001819174094961351</v>
+        <v>0.001364132411786345</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -761,10 +761,10 @@
         <v>38</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1033821164285681</v>
+        <v>0.1035596990768146</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.00134125311362332</v>
+        <v>0.006139677666922472</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -772,10 +772,10 @@
         <v>16</v>
       </c>
       <c r="D13" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.003053738438972498</v>
+        <v>0.003529078797958274</v>
       </c>
     </row>
     <row r="16" spans="1:5">

--- a/WS_holdings.xlsx
+++ b/WS_holdings.xlsx
@@ -134,7 +134,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-26 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-27 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -591,10 +591,10 @@
         <v>28</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03119933210182017</v>
+        <v>0.03121548328701642</v>
       </c>
       <c r="E2" s="1">
-        <v>0.004048582995951566</v>
+        <v>-0.003024193548387233</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -608,10 +608,10 @@
         <v>29</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02343557163353451</v>
+        <v>0.0233697740252822</v>
       </c>
       <c r="E3" s="1">
-        <v>0.0007115749525616888</v>
+        <v>-0.006399620763213987</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -625,10 +625,10 @@
         <v>30</v>
       </c>
       <c r="D4" s="1">
-        <v>0.05233193706911774</v>
+        <v>0.05206375471124405</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.001613646841862715</v>
+        <v>-0.005310551835603805</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -642,10 +642,10 @@
         <v>31</v>
       </c>
       <c r="D5" s="1">
-        <v>0.138187225087198</v>
+        <v>0.137188951823331</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.003720478809446703</v>
+        <v>0.0006494560805325733</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -659,10 +659,10 @@
         <v>32</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03091903059201217</v>
+        <v>0.03116292006383014</v>
       </c>
       <c r="E6" s="1">
-        <v>0.01144492131616603</v>
+        <v>0.0007072135785006761</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -676,10 +676,10 @@
         <v>33</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1166182013134905</v>
+        <v>0.1177198168065603</v>
       </c>
       <c r="E7" s="1">
-        <v>0.01300875837197335</v>
+        <v>0.004450095359186168</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -693,10 +693,10 @@
         <v>34</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1016373274563844</v>
+        <v>0.1017081868987934</v>
       </c>
       <c r="E8" s="1">
-        <v>0.004228718514432517</v>
+        <v>0.01299890150128169</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -710,10 +710,10 @@
         <v>35</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02917583905063652</v>
+        <v>0.02914536441870497</v>
       </c>
       <c r="E9" s="1">
-        <v>0.002480876576390401</v>
+        <v>0.009898948236749749</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -727,10 +727,10 @@
         <v>36</v>
       </c>
       <c r="D10" s="1">
-        <v>0.1258400027154948</v>
+        <v>0.1260338808865507</v>
       </c>
       <c r="E10" s="1">
-        <v>0.005075187969924899</v>
+        <v>0.01159528707686563</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -744,10 +744,10 @@
         <v>37</v>
       </c>
       <c r="D11" s="1">
-        <v>0.2470958339034965</v>
+        <v>0.2465627659098034</v>
       </c>
       <c r="E11" s="1">
-        <v>0.001364132411786345</v>
+        <v>-0.003905185723367621</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -761,10 +761,10 @@
         <v>38</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1035596990768146</v>
+        <v>0.1038291011688835</v>
       </c>
       <c r="E12" s="1">
-        <v>0.006139677666922472</v>
+        <v>0.005148741418764313</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -775,7 +775,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>0.003529078797958274</v>
+        <v>0.002758272814913809</v>
       </c>
     </row>
     <row r="16" spans="1:5">

--- a/WS_holdings.xlsx
+++ b/WS_holdings.xlsx
@@ -134,7 +134,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-27 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-28 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -591,10 +591,10 @@
         <v>28</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03121548328701642</v>
+        <v>0.03103547731048665</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.003024193548387233</v>
+        <v>0.007414897202561388</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -608,10 +608,10 @@
         <v>29</v>
       </c>
       <c r="D3" s="1">
-        <v>0.0233697740252822</v>
+        <v>0.0231563448177947</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.006399620763213987</v>
+        <v>0.005009541984732913</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -625,10 +625,10 @@
         <v>30</v>
       </c>
       <c r="D4" s="1">
-        <v>0.05206375471124405</v>
+        <v>0.05164481694847366</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.005310551835603805</v>
+        <v>0.001624883936861776</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -642,10 +642,10 @@
         <v>31</v>
       </c>
       <c r="D5" s="1">
-        <v>0.137188951823331</v>
+        <v>0.1369004412568062</v>
       </c>
       <c r="E5" s="1">
-        <v>0.0006494560805325733</v>
+        <v>0.004056466006814974</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -659,10 +659,10 @@
         <v>32</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03116292006383014</v>
+        <v>0.03109917888436214</v>
       </c>
       <c r="E6" s="1">
-        <v>0.0007072135785006761</v>
+        <v>0.001413427561837377</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -676,10 +676,10 @@
         <v>33</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1177198168065603</v>
+        <v>0.1179184300171219</v>
       </c>
       <c r="E7" s="1">
-        <v>0.004450095359186168</v>
+        <v>-0.003164556962025333</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -693,10 +693,10 @@
         <v>34</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1017081868987934</v>
+        <v>0.1027468776826355</v>
       </c>
       <c r="E8" s="1">
-        <v>0.01299890150128169</v>
+        <v>0.0007229351165731757</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -710,10 +710,10 @@
         <v>35</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02914536441870497</v>
+        <v>0.02935290954000412</v>
       </c>
       <c r="E9" s="1">
-        <v>0.009898948236749749</v>
+        <v>-0.001021033285685036</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -727,10 +727,10 @@
         <v>36</v>
       </c>
       <c r="D10" s="1">
-        <v>0.1260338808865507</v>
+        <v>0.1271445804769485</v>
       </c>
       <c r="E10" s="1">
-        <v>0.01159528707686563</v>
+        <v>0.001109262340543538</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -744,10 +744,10 @@
         <v>37</v>
       </c>
       <c r="D11" s="1">
-        <v>0.2465627659098034</v>
+        <v>0.2449243244107252</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.003905185723367621</v>
+        <v>0.002370532458059627</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -761,10 +761,10 @@
         <v>38</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1038291011688835</v>
+        <v>0.1040766186546416</v>
       </c>
       <c r="E12" s="1">
-        <v>0.005148741418764313</v>
+        <v>-0.002845759817871496</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -775,7 +775,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>0.002758272814913809</v>
+        <v>0.0011259429478363</v>
       </c>
     </row>
     <row r="16" spans="1:5">

--- a/WS_holdings.xlsx
+++ b/WS_holdings.xlsx
@@ -134,7 +134,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-28 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-06-09 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -591,10 +591,10 @@
         <v>28</v>
       </c>
       <c r="D2" s="1">
-        <v>0.03103547731048665</v>
+        <v>0.02803000413184102</v>
       </c>
       <c r="E2" s="1">
-        <v>0.007414897202561388</v>
+        <v>0.002559999999999896</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -608,10 +608,10 @@
         <v>29</v>
       </c>
       <c r="D3" s="1">
-        <v>0.0231563448177947</v>
+        <v>0.02206871390245104</v>
       </c>
       <c r="E3" s="1">
-        <v>0.005009541984732913</v>
+        <v>0.008551068883610569</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -625,10 +625,10 @@
         <v>30</v>
       </c>
       <c r="D4" s="1">
-        <v>0.05164481694847366</v>
+        <v>0.05898689401460834</v>
       </c>
       <c r="E4" s="1">
-        <v>0.001624883936861776</v>
+        <v>-0.0064695009242145</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -642,10 +642,10 @@
         <v>31</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1369004412568062</v>
+        <v>0.1363379400972748</v>
       </c>
       <c r="E5" s="1">
-        <v>0.004056466006814974</v>
+        <v>0.009090909090909038</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -659,10 +659,10 @@
         <v>32</v>
       </c>
       <c r="D6" s="1">
-        <v>0.03109917888436214</v>
+        <v>0.02205683209290736</v>
       </c>
       <c r="E6" s="1">
-        <v>0.001413427561837377</v>
+        <v>-0.005239030779305875</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -676,10 +676,10 @@
         <v>33</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1179184300171219</v>
+        <v>0.1268830483970565</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.003164556962025333</v>
+        <v>-0.006081337894336736</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -693,10 +693,10 @@
         <v>34</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1027468776826355</v>
+        <v>0.09296327786974533</v>
       </c>
       <c r="E8" s="1">
-        <v>0.0007229351165731757</v>
+        <v>-0.01082641645615312</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -710,10 +710,10 @@
         <v>35</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02935290954000412</v>
+        <v>0.03186654724283192</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.001021033285685036</v>
+        <v>-0.006345957011258951</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -727,10 +727,10 @@
         <v>36</v>
       </c>
       <c r="D10" s="1">
-        <v>0.1271445804769485</v>
+        <v>0.1103239994730068</v>
       </c>
       <c r="E10" s="1">
-        <v>0.001109262340543538</v>
+        <v>-0.01047216608487966</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -744,10 +744,10 @@
         <v>37</v>
       </c>
       <c r="D11" s="1">
-        <v>0.2449243244107252</v>
+        <v>0.2813943326797173</v>
       </c>
       <c r="E11" s="1">
-        <v>0.002370532458059627</v>
+        <v>-0.000628817822493688</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -761,10 +761,10 @@
         <v>38</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1040766186546416</v>
+        <v>0.08908841009855961</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.002845759817871496</v>
+        <v>-0.001318019205422738</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -775,7 +775,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>0.0011259429478363</v>
+        <v>-0.002427267308447445</v>
       </c>
     </row>
     <row r="16" spans="1:5">

--- a/WS_holdings.xlsx
+++ b/WS_holdings.xlsx
@@ -134,7 +134,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-06-09 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-06-10 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -591,10 +591,10 @@
         <v>28</v>
       </c>
       <c r="D2" s="1">
-        <v>0.02803000413184102</v>
+        <v>0.02817013739599431</v>
       </c>
       <c r="E2" s="1">
-        <v>0.002559999999999896</v>
+        <v>0.006702840727736969</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -608,10 +608,10 @@
         <v>29</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02206871390245104</v>
+        <v>0.02231158116676947</v>
       </c>
       <c r="E3" s="1">
-        <v>0.008551068883610569</v>
+        <v>0.006829957607159765</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -625,10 +625,10 @@
         <v>30</v>
       </c>
       <c r="D4" s="1">
-        <v>0.05898689401460834</v>
+        <v>0.05874787504580373</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.0064695009242145</v>
+        <v>0.005116279069767415</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -642,10 +642,10 @@
         <v>31</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1363379400972748</v>
+        <v>0.1379121255100299</v>
       </c>
       <c r="E5" s="1">
-        <v>0.009090909090909038</v>
+        <v>0.01753539253539249</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -659,10 +659,10 @@
         <v>32</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02205683209290736</v>
+        <v>0.02199466259615863</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.005239030779305875</v>
+        <v>-0.00197498354180381</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -676,10 +676,10 @@
         <v>33</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1268830483970565</v>
+        <v>0.1264182806665426</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.006081337894336736</v>
+        <v>0.001274697259400881</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -693,10 +693,10 @@
         <v>34</v>
       </c>
       <c r="D8" s="1">
-        <v>0.09296327786974533</v>
+        <v>0.09218056558170906</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.01082641645615312</v>
+        <v>-0.005472455308281665</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -710,10 +710,10 @@
         <v>35</v>
       </c>
       <c r="D9" s="1">
-        <v>0.03186654724283192</v>
+        <v>0.03174136828950616</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.006345957011258951</v>
+        <v>-0.005974454058508383</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -727,10 +727,10 @@
         <v>36</v>
       </c>
       <c r="D10" s="1">
-        <v>0.1103239994730068</v>
+        <v>0.1094342945128714</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.01047216608487966</v>
+        <v>-0.01132565911622718</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -744,10 +744,10 @@
         <v>37</v>
       </c>
       <c r="D11" s="1">
-        <v>0.2813943326797173</v>
+        <v>0.2819016375371714</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.000628817822493688</v>
+        <v>0.008719101123595419</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -761,10 +761,10 @@
         <v>38</v>
       </c>
       <c r="D12" s="1">
-        <v>0.08908841009855961</v>
+        <v>0.08918747169744343</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.001318019205422738</v>
+        <v>0.003205128205128194</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -775,7 +775,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.002427267308447445</v>
+        <v>0.003988106095089039</v>
       </c>
     </row>
     <row r="16" spans="1:5">

--- a/WS_holdings.xlsx
+++ b/WS_holdings.xlsx
@@ -134,7 +134,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-06-10 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-06-14 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -591,10 +591,10 @@
         <v>28</v>
       </c>
       <c r="D2" s="1">
-        <v>0.02817013739599431</v>
+        <v>0.02803438230997498</v>
       </c>
       <c r="E2" s="1">
-        <v>0.006702840727736969</v>
+        <v>0.003819223424570195</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -608,10 +608,10 @@
         <v>29</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02231158116676947</v>
+        <v>0.02236989222242707</v>
       </c>
       <c r="E3" s="1">
-        <v>0.006829957607159765</v>
+        <v>0.0009324009324009896</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -625,10 +625,10 @@
         <v>30</v>
       </c>
       <c r="D4" s="1">
-        <v>0.05874787504580373</v>
+        <v>0.05869046268538592</v>
       </c>
       <c r="E4" s="1">
-        <v>0.005116279069767415</v>
+        <v>-0.001155001155001223</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -642,10 +642,10 @@
         <v>31</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1379121255100299</v>
+        <v>0.1385716618135801</v>
       </c>
       <c r="E5" s="1">
-        <v>0.01753539253539249</v>
+        <v>0.0003177629488400058</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -659,10 +659,10 @@
         <v>32</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02199466259615863</v>
+        <v>0.02176849496454364</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.00197498354180381</v>
+        <v>-0.005280528052805322</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -676,10 +676,10 @@
         <v>33</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1264182806665426</v>
+        <v>0.1266320142879937</v>
       </c>
       <c r="E7" s="1">
-        <v>0.001274697259400881</v>
+        <v>-0.001262785705265723</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -693,10 +693,10 @@
         <v>34</v>
       </c>
       <c r="D8" s="1">
-        <v>0.09218056558170906</v>
+        <v>0.09130670414256105</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.005472455308281665</v>
+        <v>-0.004751461988304118</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -710,10 +710,10 @@
         <v>35</v>
       </c>
       <c r="D9" s="1">
-        <v>0.03174136828950616</v>
+        <v>0.03145249720651553</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.005974454058508383</v>
+        <v>-0.01382298328863218</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -727,10 +727,10 @@
         <v>36</v>
       </c>
       <c r="D10" s="1">
-        <v>0.1094342945128714</v>
+        <v>0.1080304147103392</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.01132565911622718</v>
+        <v>-0.009518477043673035</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -744,10 +744,10 @@
         <v>37</v>
       </c>
       <c r="D11" s="1">
-        <v>0.2819016375371714</v>
+        <v>0.2840393455175568</v>
       </c>
       <c r="E11" s="1">
-        <v>0.008719101123595419</v>
+        <v>0.01124291784702547</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -761,10 +761,10 @@
         <v>38</v>
       </c>
       <c r="D12" s="1">
-        <v>0.08918747169744343</v>
+        <v>0.08910413013912206</v>
       </c>
       <c r="E12" s="1">
-        <v>0.003205128205128194</v>
+        <v>0.006179775280898969</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -775,7 +775,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>0.003988106095089039</v>
+        <v>0.001676496247987824</v>
       </c>
     </row>
     <row r="16" spans="1:5">

--- a/WS_holdings.xlsx
+++ b/WS_holdings.xlsx
@@ -134,7 +134,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-06-14 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-07 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -591,10 +591,10 @@
         <v>28</v>
       </c>
       <c r="D2" s="1">
-        <v>0.02803438230997498</v>
+        <v>0.02702105662005934</v>
       </c>
       <c r="E2" s="1">
-        <v>0.003819223424570195</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -608,10 +608,10 @@
         <v>29</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02236989222242707</v>
+        <v>0.02134031584418208</v>
       </c>
       <c r="E3" s="1">
-        <v>0.0009324009324009896</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -625,10 +625,10 @@
         <v>30</v>
       </c>
       <c r="D4" s="1">
-        <v>0.05869046268538592</v>
+        <v>0.05633659105730369</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.001155001155001223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -642,10 +642,10 @@
         <v>31</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1385716618135801</v>
+        <v>0.1395535283554164</v>
       </c>
       <c r="E5" s="1">
-        <v>0.0003177629488400058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -659,10 +659,10 @@
         <v>32</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02176849496454364</v>
+        <v>0.02042427648759138</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.005280528052805322</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -676,10 +676,10 @@
         <v>33</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1266320142879937</v>
+        <v>0.1289721533363204</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.001262785705265723</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -693,10 +693,10 @@
         <v>34</v>
       </c>
       <c r="D8" s="1">
-        <v>0.09130670414256105</v>
+        <v>0.08861682607207488</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.004751461988304118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -710,10 +710,10 @@
         <v>35</v>
       </c>
       <c r="D9" s="1">
-        <v>0.03145249720651553</v>
+        <v>0.02914945751428119</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.01382298328863218</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -727,10 +727,10 @@
         <v>36</v>
       </c>
       <c r="D10" s="1">
-        <v>0.1080304147103392</v>
+        <v>0.1026648862310514</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.009518477043673035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -744,10 +744,10 @@
         <v>37</v>
       </c>
       <c r="D11" s="1">
-        <v>0.2840393455175568</v>
+        <v>0.2958134851503912</v>
       </c>
       <c r="E11" s="1">
-        <v>0.01124291784702547</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -761,10 +761,10 @@
         <v>38</v>
       </c>
       <c r="D12" s="1">
-        <v>0.08910413013912206</v>
+        <v>0.09010742333132789</v>
       </c>
       <c r="E12" s="1">
-        <v>0.006179775280898969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -772,10 +772,10 @@
         <v>16</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.001676496247987824</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5">

--- a/WS_holdings.xlsx
+++ b/WS_holdings.xlsx
@@ -594,7 +594,7 @@
         <v>0.02702105662005934</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>0.003241491085899328</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -611,7 +611,7 @@
         <v>0.02134031584418208</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>0.006236507555768878</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -628,7 +628,7 @@
         <v>0.05633659105730369</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>0.004961020552799456</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -645,7 +645,7 @@
         <v>0.1395535283554164</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>0.002013318878736348</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -662,7 +662,7 @@
         <v>0.02042427648759138</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>-0.01795580110497241</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -679,7 +679,7 @@
         <v>0.1289721533363204</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>-0.000851996105160624</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -696,7 +696,7 @@
         <v>0.08861682607207488</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>0.007393715341959206</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -713,7 +713,7 @@
         <v>0.02914945751428119</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>0.01048951048951063</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -730,7 +730,7 @@
         <v>0.1026648862310514</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
+        <v>0.0005783689994216523</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -747,7 +747,7 @@
         <v>0.2958134851503912</v>
       </c>
       <c r="E11" s="1">
-        <v>0</v>
+        <v>0.003755006675567385</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -764,7 +764,7 @@
         <v>0.09010742333132789</v>
       </c>
       <c r="E12" s="1">
-        <v>0</v>
+        <v>-0.006180694419196442</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -775,7 +775,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0</v>
+        <v>0.001878716753191512</v>
       </c>
     </row>
     <row r="16" spans="1:5">

--- a/WS_holdings.xlsx
+++ b/WS_holdings.xlsx
@@ -134,7 +134,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-07-07 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-08 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -591,10 +591,10 @@
         <v>28</v>
       </c>
       <c r="D2" s="1">
-        <v>0.02702105662005934</v>
+        <v>0.02705781117107306</v>
       </c>
       <c r="E2" s="1">
-        <v>0.003241491085899328</v>
+        <v>-0.002907915993538124</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -608,10 +608,10 @@
         <v>29</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02134031584418208</v>
+        <v>0.02143313808958444</v>
       </c>
       <c r="E3" s="1">
-        <v>0.006236507555768878</v>
+        <v>-0.003814064362336222</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -625,10 +625,10 @@
         <v>30</v>
       </c>
       <c r="D4" s="1">
-        <v>0.05633659105730369</v>
+        <v>0.05650991192515847</v>
       </c>
       <c r="E4" s="1">
-        <v>0.004961020552799456</v>
+        <v>-0.002350728725905138</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -642,10 +642,10 @@
         <v>31</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1395535283554164</v>
+        <v>0.1395722773329422</v>
       </c>
       <c r="E5" s="1">
-        <v>0.002013318878736348</v>
+        <v>-0.003091190108191699</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -659,10 +659,10 @@
         <v>32</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02042427648759138</v>
+        <v>0.02001993046250958</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.01795580110497241</v>
+        <v>-0.002812939521800284</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -676,10 +676,10 @@
         <v>33</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1289721533363204</v>
+        <v>0.1286206278356828</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.000851996105160624</v>
+        <v>-0.004019978072846819</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -693,10 +693,10 @@
         <v>34</v>
       </c>
       <c r="D8" s="1">
-        <v>0.08861682607207488</v>
+        <v>0.08910463129495892</v>
       </c>
       <c r="E8" s="1">
-        <v>0.007393715341959206</v>
+        <v>-0.01357798165137625</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -710,10 +710,10 @@
         <v>35</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02914945751428119</v>
+        <v>0.02939998680688308</v>
       </c>
       <c r="E9" s="1">
-        <v>0.01048951048951063</v>
+        <v>-0.01513840830449842</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -727,10 +727,10 @@
         <v>36</v>
       </c>
       <c r="D10" s="1">
-        <v>0.1026648862310514</v>
+        <v>0.1025316365153232</v>
       </c>
       <c r="E10" s="1">
-        <v>0.0005783689994216523</v>
+        <v>-0.0200385356454722</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -744,10 +744,10 @@
         <v>37</v>
       </c>
       <c r="D11" s="1">
-        <v>0.2958134851503912</v>
+        <v>0.2963674762191797</v>
       </c>
       <c r="E11" s="1">
-        <v>0.003755006675567385</v>
+        <v>-0.009892759165350484</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -761,10 +761,10 @@
         <v>38</v>
       </c>
       <c r="D12" s="1">
-        <v>0.09010742333132789</v>
+        <v>0.08938257234670467</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.006180694419196442</v>
+        <v>-0.01042619352478502</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -772,10 +772,10 @@
         <v>16</v>
       </c>
       <c r="D13" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>0.001878716753191512</v>
+        <v>-0.008871406053597042</v>
       </c>
     </row>
     <row r="16" spans="1:5">

--- a/WS_holdings.xlsx
+++ b/WS_holdings.xlsx
@@ -134,7 +134,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-07-08 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-09 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -591,10 +591,10 @@
         <v>28</v>
       </c>
       <c r="D2" s="1">
-        <v>0.02705781117107306</v>
+        <v>0.02722061445306007</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.002907915993538124</v>
+        <v>0.01717433570965676</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -608,10 +608,10 @@
         <v>29</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02143313808958444</v>
+        <v>0.02154250301306366</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.003814064362336222</v>
+        <v>0.002153625269203152</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -625,10 +625,10 @@
         <v>30</v>
       </c>
       <c r="D4" s="1">
-        <v>0.05650991192515847</v>
+        <v>0.05688169304794199</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.002350728725905138</v>
+        <v>0.005655042412818334</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -642,10 +642,10 @@
         <v>31</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1395722773329422</v>
+        <v>0.1403862563745155</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.003091190108191699</v>
+        <v>0.004186046511627906</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -659,10 +659,10 @@
         <v>32</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02001993046250958</v>
+        <v>0.02014230618591906</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.002812939521800284</v>
+        <v>0.02115655853314524</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -676,10 +676,10 @@
         <v>33</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1286206278356828</v>
+        <v>0.1292502067990937</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.004019978072846819</v>
+        <v>0.01186399217221124</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -693,10 +693,10 @@
         <v>34</v>
       </c>
       <c r="D8" s="1">
-        <v>0.08910463129495892</v>
+        <v>0.08868149984071229</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.01357798165137625</v>
+        <v>0.01599702380952372</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -710,10 +710,10 @@
         <v>35</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02939998680688308</v>
+        <v>0.02921408783815131</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.01513840830449842</v>
+        <v>0.02195871761089152</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -727,10 +727,10 @@
         <v>36</v>
       </c>
       <c r="D10" s="1">
-        <v>0.1025316365153232</v>
+        <v>0.1013764039055216</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.0200385356454722</v>
+        <v>0.02811639795517107</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -744,10 +744,10 @@
         <v>37</v>
       </c>
       <c r="D11" s="1">
-        <v>0.2963674762191797</v>
+        <v>0.2960620710014231</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.009892759165350484</v>
+        <v>0.009571788413098359</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -761,10 +761,10 @@
         <v>38</v>
       </c>
       <c r="D12" s="1">
-        <v>0.08938257234670467</v>
+        <v>0.08924235754059776</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.01042619352478502</v>
+        <v>0.01182994454713482</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -772,10 +772,10 @@
         <v>16</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.008871406053597042</v>
+        <v>0.01218284648341883</v>
       </c>
     </row>
     <row r="16" spans="1:5">

--- a/WS_holdings.xlsx
+++ b/WS_holdings.xlsx
@@ -134,7 +134,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-07-09 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-13 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -591,10 +591,10 @@
         <v>28</v>
       </c>
       <c r="D2" s="1">
-        <v>0.02722061445306007</v>
+        <v>0.02752060754815729</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01717433570965676</v>
+        <v>-0.01484523057485787</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -608,10 +608,10 @@
         <v>29</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02154250301306366</v>
+        <v>0.02134641475285731</v>
       </c>
       <c r="E3" s="1">
-        <v>0.002153625269203152</v>
+        <v>-0.009043312708234219</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -625,10 +625,10 @@
         <v>30</v>
       </c>
       <c r="D4" s="1">
-        <v>0.05688169304794199</v>
+        <v>0.05626675149991613</v>
       </c>
       <c r="E4" s="1">
-        <v>0.005655042412818334</v>
+        <v>-0.002112676056338025</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -642,10 +642,10 @@
         <v>31</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1403862563745155</v>
+        <v>0.1390119078878892</v>
       </c>
       <c r="E5" s="1">
-        <v>0.004186046511627906</v>
+        <v>-0.003703132232680151</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -659,10 +659,10 @@
         <v>32</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02014230618591906</v>
+        <v>0.02024167090193203</v>
       </c>
       <c r="E6" s="1">
-        <v>0.02115655853314524</v>
+        <v>-0.008990318118948903</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -676,10 +676,10 @@
         <v>33</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1292502067990937</v>
+        <v>0.1294602650075715</v>
       </c>
       <c r="E7" s="1">
-        <v>0.01186399217221124</v>
+        <v>-0.01203369434416368</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -693,10 +693,10 @@
         <v>34</v>
       </c>
       <c r="D8" s="1">
-        <v>0.08868149984071229</v>
+        <v>0.08887261262550855</v>
       </c>
       <c r="E8" s="1">
-        <v>0.01599702380952372</v>
+        <v>-0.01024327784891166</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -710,10 +710,10 @@
         <v>35</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02921408783815131</v>
+        <v>0.0295167327036918</v>
       </c>
       <c r="E9" s="1">
-        <v>0.02195871761089152</v>
+        <v>-0.01220818162347403</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -727,10 +727,10 @@
         <v>36</v>
       </c>
       <c r="D10" s="1">
-        <v>0.1013764039055216</v>
+        <v>0.103832375158639</v>
       </c>
       <c r="E10" s="1">
-        <v>0.02811639795517107</v>
+        <v>-0.01305334846765038</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -744,10 +744,10 @@
         <v>37</v>
       </c>
       <c r="D11" s="1">
-        <v>0.2960620710014231</v>
+        <v>0.2945541072741727</v>
       </c>
       <c r="E11" s="1">
-        <v>0.009571788413098359</v>
+        <v>0.002162341982701266</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -761,10 +761,10 @@
         <v>38</v>
       </c>
       <c r="D12" s="1">
-        <v>0.08924235754059776</v>
+        <v>0.08937655463966453</v>
       </c>
       <c r="E12" s="1">
-        <v>0.01182994454713482</v>
+        <v>-0.006002182611858919</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -772,10 +772,10 @@
         <v>16</v>
       </c>
       <c r="D13" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>0.01218284648341883</v>
+        <v>-0.005500689646452339</v>
       </c>
     </row>
     <row r="16" spans="1:5">

--- a/WS_holdings.xlsx
+++ b/WS_holdings.xlsx
@@ -134,7 +134,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-07-13 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-14 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -591,10 +591,10 @@
         <v>28</v>
       </c>
       <c r="D2" s="1">
-        <v>0.02752060754815729</v>
+        <v>0.02726201768194922</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.01484523057485787</v>
+        <v>0.00705354280218029</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -608,10 +608,10 @@
         <v>29</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02134641475285731</v>
+        <v>0.02127037417605394</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.009043312708234219</v>
+        <v>0.007444764649375823</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -625,10 +625,10 @@
         <v>30</v>
       </c>
       <c r="D4" s="1">
-        <v>0.05626675149991613</v>
+        <v>0.05645843842897547</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.002112676056338025</v>
+        <v>0.007292401787814429</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -642,10 +642,10 @@
         <v>31</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1390119078878892</v>
+        <v>0.1392631718988593</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.003703132232680151</v>
+        <v>-0.005265603221310089</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -659,10 +659,10 @@
         <v>32</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02024167090193203</v>
+        <v>0.02017064429550314</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.008990318118948903</v>
+        <v>-0.03140265177948354</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -676,10 +676,10 @@
         <v>33</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1294602650075715</v>
+        <v>0.1286098224676358</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.01203369434416368</v>
+        <v>-0.003654080389768555</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -693,10 +693,10 @@
         <v>34</v>
       </c>
       <c r="D8" s="1">
-        <v>0.08887261262550855</v>
+        <v>0.08844879513285525</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.01024327784891166</v>
+        <v>-0.0024025133986324</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -710,10 +710,10 @@
         <v>35</v>
       </c>
       <c r="D9" s="1">
-        <v>0.0295167327036918</v>
+        <v>0.02931765438786319</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.01220818162347403</v>
+        <v>-0.001517779705117128</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -727,10 +727,10 @@
         <v>36</v>
       </c>
       <c r="D10" s="1">
-        <v>0.103832375158639</v>
+        <v>0.103043827096309</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.01305334846765038</v>
+        <v>-0.004600345025876917</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -744,10 +744,10 @@
         <v>37</v>
       </c>
       <c r="D11" s="1">
-        <v>0.2945541072741727</v>
+        <v>0.2968237694217881</v>
       </c>
       <c r="E11" s="1">
-        <v>0.002162341982701266</v>
+        <v>0.004564315352697079</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -761,10 +761,10 @@
         <v>38</v>
       </c>
       <c r="D12" s="1">
-        <v>0.08937655463966453</v>
+        <v>0.08933148501220735</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.006002182611858919</v>
+        <v>-0.00402561756633113</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -772,10 +772,10 @@
         <v>16</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.005500689646452339</v>
+        <v>-0.0008101540212109848</v>
       </c>
     </row>
     <row r="16" spans="1:5">
